--- a/3_planeacion/2_classes/3_unidad_2_ecuaciones_e_inecuaciones/apendice/ejercicios_colaboracion_equipo/asignacion_ejercicios_cap2.xlsx
+++ b/3_planeacion/2_classes/3_unidad_2_ecuaciones_e_inecuaciones/apendice/ejercicios_colaboracion_equipo/asignacion_ejercicios_cap2.xlsx
@@ -1,162 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documentos\docencia\algebra_y_trigonometria\3_planeacion\2_classes\3_unidad_2_ecuaciones_e_inecuaciones\apendice\ejercicios_colaboracion_equipo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEE16AA-97EC-4475-9DFB-7F02B56576DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Ejercicios asignados</t>
-  </si>
-  <si>
-    <t>ACEVEDO BELEÑO SANTIAGO</t>
-  </si>
-  <si>
-    <t>Sección 2.7 (Valor absoluto) - Ejercicio 50, Sección 2.1 (Ecuaciones) - Ejercicio 3, Sección 2.4 (Números complejos) - Ejercicio 17, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 64, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 65, Sección 2.2 (Problemas de aplicación) - Ejercicio 31, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 2, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 10, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 79, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 4, Sección 2.1 (Ecuaciones) - Ejercicio 74, Sección 2.1 (Ecuaciones) - Ejercicio 19, Sección 2.4 (Números complejos) - Ejercicio 54, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 31, Sección 2.4 (Números complejos) - Ejercicio 46, Sección 2.6 (Desigualdades) - Ejercicio 63, Sección 2.1 (Ecuaciones) - Ejercicio 31, Sección 2.7 (Valor absoluto) - Ejercicio 15, Sección 2.6 (Desigualdades) - Ejercicio 9, Sección 2.4 (Números complejos) - Ejercicio 16, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 53, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 29, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 28, Sección 2.2 (Problemas de aplicación) - Ejercicio 18, Sección 2.4 (Números complejos) - Ejercicio 33, Sección 2.1 (Ecuaciones) - Ejercicio 43, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 56</t>
-  </si>
-  <si>
-    <t>CANOLE PEÑATE SEBASTIAN</t>
-  </si>
-  <si>
-    <t>Sección 2.1 (Ecuaciones) - Ejercicio 12, Sección 2.4 (Números complejos) - Ejercicio 58, Sección 2.7 (Valor absoluto) - Ejercicio 1, Sección 2.6 (Desigualdades) - Ejercicio 45, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 47, Sección 2.6 (Desigualdades) - Ejercicio 83, Sección 2.4 (Números complejos) - Ejercicio 47, Sección 2.1 (Ecuaciones) - Ejercicio 72, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 38, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 68, Sección 2.4 (Números complejos) - Ejercicio 61, Sección 2.2 (Problemas de aplicación) - Ejercicio 36, Sección 2.6 (Desigualdades) - Ejercicio 84, Sección 2.7 (Valor absoluto) - Ejercicio 2, Sección 2.6 (Desigualdades) - Ejercicio 43, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 62, Sección 2.6 (Desigualdades) - Ejercicio 1, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 14, Sección 2.6 (Desigualdades) - Ejercicio 57, Sección 2.6 (Desigualdades) - Ejercicio 44, Sección 2.1 (Ecuaciones) - Ejercicio 56, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 76, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 11, Sección 2.4 (Números complejos) - Ejercicio 24, Sección 2.1 (Ecuaciones) - Ejercicio 42, Sección 2.2 (Problemas de aplicación) - Ejercicio 24, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 31</t>
-  </si>
-  <si>
-    <t>CORREA RESTREPO NICOLAS</t>
-  </si>
-  <si>
-    <t>Sección 2.6 (Desigualdades) - Ejercicio 48, Sección 2.1 (Ecuaciones) - Ejercicio 15, Sección 2.4 (Números complejos) - Ejercicio 22, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 22, Sección 2.4 (Números complejos) - Ejercicio 48, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 58, Sección 2.1 (Ecuaciones) - Ejercicio 34, Sección 2.1 (Ecuaciones) - Ejercicio 37, Sección 2.7 (Valor absoluto) - Ejercicio 29, Sección 2.2 (Problemas de aplicación) - Ejercicio 12, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 3, Sección 2.1 (Ecuaciones) - Ejercicio 60, Sección 2.1 (Ecuaciones) - Ejercicio 58, Sección 2.7 (Valor absoluto) - Ejercicio 24, Sección 2.4 (Números complejos) - Ejercicio 3, Sección 2.6 (Desigualdades) - Ejercicio 26, Sección 2.6 (Desigualdades) - Ejercicio 62, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 3, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 19, Sección 2.6 (Desigualdades) - Ejercicio 37, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 77, Sección 2.6 (Desigualdades) - Ejercicio 8, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 39, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 1, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 12, Sección 2.6 (Desigualdades) - Ejercicio 41, Sección 2.1 (Ecuaciones) - Ejercicio 39</t>
-  </si>
-  <si>
-    <t>HERNANDEZ GOMEZ MICHAEL</t>
-  </si>
-  <si>
-    <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 33, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 15, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 20, Sección 2.1 (Ecuaciones) - Ejercicio 16, Sección 2.7 (Valor absoluto) - Ejercicio 52, Sección 2.1 (Ecuaciones) - Ejercicio 13, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 49, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 4, Sección 2.4 (Números complejos) - Ejercicio 41, Sección 2.4 (Números complejos) - Ejercicio 13, Sección 2.4 (Números complejos) - Ejercicio 56, Sección 2.7 (Valor absoluto) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 46, Sección 2.1 (Ecuaciones) - Ejercicio 57, Sección 2.4 (Números complejos) - Ejercicio 25, Sección 2.2 (Problemas de aplicación) - Ejercicio 29, Sección 2.4 (Números complejos) - Ejercicio 52, Sección 2.1 (Ecuaciones) - Ejercicio 22, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 7, Sección 2.7 (Valor absoluto) - Ejercicio 39, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 38, Sección 2.6 (Desigualdades) - Ejercicio 11, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 47, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 6, Sección 2.7 (Valor absoluto) - Ejercicio 49, Sección 2.6 (Desigualdades) - Ejercicio 54, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 39</t>
-  </si>
-  <si>
-    <t>MARIN VILLARREAL PABLO ALEJANDRO</t>
-  </si>
-  <si>
-    <t>Sección 2.1 (Ecuaciones) - Ejercicio 61, Sección 2.4 (Números complejos) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 10, Sección 2.6 (Desigualdades) - Ejercicio 2, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 15, Sección 2.7 (Valor absoluto) - Ejercicio 38, Sección 2.2 (Problemas de aplicación) - Ejercicio 19, Sección 2.1 (Ecuaciones) - Ejercicio 54, Sección 2.7 (Valor absoluto) - Ejercicio 31, Sección 2.7 (Valor absoluto) - Ejercicio 8, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 1, Sección 2.6 (Desigualdades) - Ejercicio 49, Sección 2.6 (Desigualdades) - Ejercicio 66, Sección 2.4 (Números complejos) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 8, Sección 2.2 (Problemas de aplicación) - Ejercicio 33, Sección 2.7 (Valor absoluto) - Ejercicio 23, Sección 2.1 (Ecuaciones) - Ejercicio 75, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 37, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 49, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 42, Sección 2.4 (Números complejos) - Ejercicio 35, Sección 2.4 (Números complejos) - Ejercicio 32, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 23, Sección 2.6 (Desigualdades) - Ejercicio 58, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 52, Sección 2.6 (Desigualdades) - Ejercicio 72</t>
-  </si>
-  <si>
-    <t>MARTINEZ MANJARREZ DANIELA ESTHER</t>
-  </si>
-  <si>
-    <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 55, Sección 2.6 (Desigualdades) - Ejercicio 40, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 12, Sección 2.4 (Números complejos) - Ejercicio 10, Sección 2.7 (Valor absoluto) - Ejercicio 37, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 53, Sección 2.1 (Ecuaciones) - Ejercicio 20, Sección 2.7 (Valor absoluto) - Ejercicio 22, Sección 2.4 (Números complejos) - Ejercicio 39, Sección 2.4 (Números complejos) - Ejercicio 40, Sección 2.7 (Valor absoluto) - Ejercicio 25, Sección 2.6 (Desigualdades) - Ejercicio 28, Sección 2.7 (Valor absoluto) - Ejercicio 21, Sección 2.2 (Problemas de aplicación) - Ejercicio 37, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 71, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 82, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 37, Sección 2.1 (Ecuaciones) - Ejercicio 45, Sección 2.1 (Ecuaciones) - Ejercicio 76, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 52, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 17, Sección 2.1 (Ecuaciones) - Ejercicio 38, Sección 2.2 (Problemas de aplicación) - Ejercicio 5, Sección 2.6 (Desigualdades) - Ejercicio 59, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 55, Sección 2.6 (Desigualdades) - Ejercicio 53, Sección 2.1 (Ecuaciones) - Ejercicio 47</t>
-  </si>
-  <si>
-    <t>MEJIA GUZMAN SAMUEL</t>
-  </si>
-  <si>
-    <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 43, Sección 2.4 (Números complejos) - Ejercicio 6, Sección 2.1 (Ecuaciones) - Ejercicio 29, Sección 2.4 (Números complejos) - Ejercicio 26, Sección 2.2 (Problemas de aplicación) - Ejercicio 20, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 68, Sección 2.6 (Desigualdades) - Ejercicio 60, Sección 2.1 (Ecuaciones) - Ejercicio 5, Sección 2.6 (Desigualdades) - Ejercicio 61, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 21, Sección 2.1 (Ecuaciones) - Ejercicio 48, Sección 2.7 (Valor absoluto) - Ejercicio 26, Sección 2.4 (Números complejos) - Ejercicio 45, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 5, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 60, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 63, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 70, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 67, Sección 2.4 (Números complejos) - Ejercicio 9, Sección 2.6 (Desigualdades) - Ejercicio 67, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 70, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 45, Sección 2.4 (Números complejos) - Ejercicio 50, Sección 2.6 (Desigualdades) - Ejercicio 27, Sección 2.2 (Problemas de aplicación) - Ejercicio 25, Sección 2.2 (Problemas de aplicación) - Ejercicio 14, Sección 2.2 (Problemas de aplicación) - Ejercicio 1</t>
-  </si>
-  <si>
-    <t>NIEBLES BARRERA ALEXANDER ISAAC</t>
-  </si>
-  <si>
-    <t>Sección 2.1 (Ecuaciones) - Ejercicio 68, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 16, Sección 2.7 (Valor absoluto) - Ejercicio 13, Sección 2.6 (Desigualdades) - Ejercicio 79, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 59, Sección 2.1 (Ecuaciones) - Ejercicio 50, Sección 2.1 (Ecuaciones) - Ejercicio 23, Sección 2.1 (Ecuaciones) - Ejercicio 49, Sección 2.1 (Ecuaciones) - Ejercicio 17, Sección 2.6 (Desigualdades) - Ejercicio 77, Sección 2.7 (Valor absoluto) - Ejercicio 12, Sección 2.7 (Valor absoluto) - Ejercicio 34, Sección 2.7 (Valor absoluto) - Ejercicio 7, Sección 2.2 (Problemas de aplicación) - Ejercicio 22, Sección 2.6 (Desigualdades) - Ejercicio 30, Sección 2.1 (Ecuaciones) - Ejercicio 8, Sección 2.4 (Números complejos) - Ejercicio 7, Sección 2.1 (Ecuaciones) - Ejercicio 46, Sección 2.6 (Desigualdades) - Ejercicio 46, Sección 2.4 (Números complejos) - Ejercicio 43, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 8, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 34, Sección 2.1 (Ecuaciones) - Ejercicio 10, Sección 2.7 (Valor absoluto) - Ejercicio 44, Sección 2.1 (Ecuaciones) - Ejercicio 1, Sección 2.2 (Problemas de aplicación) - Ejercicio 6, Sección 2.7 (Valor absoluto) - Ejercicio 45</t>
-  </si>
-  <si>
-    <t>OQUENDO MONA CRISTIAN GABRIEL</t>
-  </si>
-  <si>
-    <t>Sección 2.6 (Desigualdades) - Ejercicio 34, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 2, Sección 2.7 (Valor absoluto) - Ejercicio 14, Sección 2.1 (Ecuaciones) - Ejercicio 18, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 73, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 51, Sección 2.1 (Ecuaciones) - Ejercicio 41, Sección 2.2 (Problemas de aplicación) - Ejercicio 38, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 60, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 27, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 7, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 83, Sección 2.7 (Valor absoluto) - Ejercicio 54, Sección 2.6 (Desigualdades) - Ejercicio 21, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 18, Sección 2.2 (Problemas de aplicación) - Ejercicio 32, Sección 2.6 (Desigualdades) - Ejercicio 18, Sección 2.4 (Números complejos) - Ejercicio 62, Sección 2.6 (Desigualdades) - Ejercicio 17, Sección 2.2 (Problemas de aplicación) - Ejercicio 28, Sección 2.4 (Números complejos) - Ejercicio 53, Sección 2.2 (Problemas de aplicación) - Ejercicio 15, Sección 2.4 (Números complejos) - Ejercicio 23, Sección 2.6 (Desigualdades) - Ejercicio 69, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 26, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 36, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 65</t>
-  </si>
-  <si>
-    <t>PATINO GIL CHRISTIAN FELIPE</t>
-  </si>
-  <si>
-    <t>Sección 2.7 (Valor absoluto) - Ejercicio 46, Sección 2.4 (Números complejos) - Ejercicio 38, Sección 2.1 (Ecuaciones) - Ejercicio 59, Sección 2.7 (Valor absoluto) - Ejercicio 10, Sección 2.7 (Valor absoluto) - Ejercicio 5, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 66, Sección 2.6 (Desigualdades) - Ejercicio 13, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 81, Sección 2.7 (Valor absoluto) - Ejercicio 55, Sección 2.4 (Números complejos) - Ejercicio 14, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 44, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 41, Sección 2.2 (Problemas de aplicación) - Ejercicio 8, Sección 2.4 (Números complejos) - Ejercicio 51, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 6, Sección 2.1 (Ecuaciones) - Ejercicio 14, Sección 2.4 (Números complejos) - Ejercicio 36, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 36, Sección 2.6 (Desigualdades) - Ejercicio 6, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 74, Sección 2.6 (Desigualdades) - Ejercicio 88, Sección 2.6 (Desigualdades) - Ejercicio 65, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 64, Sección 2.1 (Ecuaciones) - Ejercicio 51, Sección 2.4 (Números complejos) - Ejercicio 44, Sección 2.4 (Números complejos) - Ejercicio 31, Sección 2.6 (Desigualdades) - Ejercicio 50</t>
-  </si>
-  <si>
-    <t>PINO VERGARA LIZETH</t>
-  </si>
-  <si>
-    <t>Sección 2.7 (Valor absoluto) - Ejercicio 51, Sección 2.6 (Desigualdades) - Ejercicio 74, Sección 2.7 (Valor absoluto) - Ejercicio 11, Sección 2.6 (Desigualdades) - Ejercicio 75, Sección 2.2 (Problemas de aplicación) - Ejercicio 16, Sección 2.2 (Problemas de aplicación) - Ejercicio 40, Sección 2.7 (Valor absoluto) - Ejercicio 28, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 35, Sección 2.6 (Desigualdades) - Ejercicio 25, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 18, Sección 2.1 (Ecuaciones) - Ejercicio 62, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 24, Sección 2.1 (Ecuaciones) - Ejercicio 65, Sección 2.6 (Desigualdades) - Ejercicio 42, Sección 2.2 (Problemas de aplicación) - Ejercicio 4, Sección 2.6 (Desigualdades) - Ejercicio 14, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 61, Sección 2.6 (Desigualdades) - Ejercicio 22, Sección 2.4 (Números complejos) - Ejercicio 8, Sección 2.1 (Ecuaciones) - Ejercicio 28, Sección 2.1 (Ecuaciones) - Ejercicio 66, Sección 2.6 (Desigualdades) - Ejercicio 70, Sección 2.4 (Números complejos) - Ejercicio 34, Sección 2.1 (Ecuaciones) - Ejercicio 69, Sección 2.6 (Desigualdades) - Ejercicio 71, Sección 2.6 (Desigualdades) - Ejercicio 87</t>
-  </si>
-  <si>
-    <t>RIVERA GUZMAN CRISTIAN</t>
-  </si>
-  <si>
-    <t>Sección 2.7 (Valor absoluto) - Ejercicio 36, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 61, Sección 2.7 (Valor absoluto) - Ejercicio 43, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 62, Sección 2.4 (Números complejos) - Ejercicio 4, Sección 2.4 (Números complejos) - Ejercicio 21, Sección 2.2 (Problemas de aplicación) - Ejercicio 10, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 57, Sección 2.2 (Problemas de aplicación) - Ejercicio 30, Sección 2.1 (Ecuaciones) - Ejercicio 21, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 26, Sección 2.7 (Valor absoluto) - Ejercicio 16, Sección 2.1 (Ecuaciones) - Ejercicio 73, Sección 2.1 (Ecuaciones) - Ejercicio 30, Sección 2.6 (Desigualdades) - Ejercicio 81, Sección 2.1 (Ecuaciones) - Ejercicio 4, Sección 2.1 (Ecuaciones) - Ejercicio 44, Sección 2.1 (Ecuaciones) - Ejercicio 32, Sección 2.2 (Problemas de aplicación) - Ejercicio 27, Sección 2.6 (Desigualdades) - Ejercicio 3, Sección 2.1 (Ecuaciones) - Ejercicio 70, Sección 2.1 (Ecuaciones) - Ejercicio 6, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 17, Sección 2.7 (Valor absoluto) - Ejercicio 53, Sección 2.4 (Números complejos) - Ejercicio 20, Sección 2.6 (Desigualdades) - Ejercicio 56</t>
-  </si>
-  <si>
-    <t>ROMERO CALDERA JUAN ESTEBAN</t>
-  </si>
-  <si>
-    <t>Sección 2.7 (Valor absoluto) - Ejercicio 33, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 13, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 13, Sección 2.1 (Ecuaciones) - Ejercicio 25, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 32, Sección 2.4 (Números complejos) - Ejercicio 15, Sección 2.2 (Problemas de aplicación) - Ejercicio 7, Sección 2.4 (Números complejos) - Ejercicio 49, Sección 2.1 (Ecuaciones) - Ejercicio 33, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 54, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 57, Sección 2.7 (Valor absoluto) - Ejercicio 47, Sección 2.7 (Valor absoluto) - Ejercicio 4, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 19, Sección 2.1 (Ecuaciones) - Ejercicio 71, Sección 2.1 (Ecuaciones) - Ejercicio 2, Sección 2.2 (Problemas de aplicación) - Ejercicio 34, Sección 2.6 (Desigualdades) - Ejercicio 16, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 43, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 41, Sección 2.2 (Problemas de aplicación) - Ejercicio 11, Sección 2.1 (Ecuaciones) - Ejercicio 77, Sección 2.6 (Desigualdades) - Ejercicio 73, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 28, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 33, Sección 2.1 (Ecuaciones) - Ejercicio 9</t>
-  </si>
-  <si>
-    <t>SÁNCHEZ HERRERA JUAN ESTEVAN</t>
-  </si>
-  <si>
-    <t>Sección 2.6 (Desigualdades) - Ejercicio 64, Sección 2.1 (Ecuaciones) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 45, Sección 2.6 (Desigualdades) - Ejercicio 5, Sección 2.6 (Desigualdades) - Ejercicio 89, Sección 2.2 (Problemas de aplicación) - Ejercicio 9, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 69, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 50, Sección 2.7 (Valor absoluto) - Ejercicio 6, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 72, Sección 2.7 (Valor absoluto) - Ejercicio 18, Sección 2.6 (Desigualdades) - Ejercicio 4, Sección 2.6 (Desigualdades) - Ejercicio 36, Sección 2.6 (Desigualdades) - Ejercicio 86, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 24, Sección 2.1 (Ecuaciones) - Ejercicio 26, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 56, Sección 2.6 (Desigualdades) - Ejercicio 78, Sección 2.1 (Ecuaciones) - Ejercicio 52, Sección 2.1 (Ecuaciones) - Ejercicio 27, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 11, Sección 2.6 (Desigualdades) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 50, Sección 2.4 (Números complejos) - Ejercicio 18, Sección 2.6 (Desigualdades) - Ejercicio 31, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 34</t>
-  </si>
-  <si>
-    <t>SANCHEZ PACHECO MOISES DAVID</t>
-  </si>
-  <si>
-    <t>Sección 2.4 (Números complejos) - Ejercicio 12, Sección 2.6 (Desigualdades) - Ejercicio 85, Sección 2.1 (Ecuaciones) - Ejercicio 78, Sección 2.7 (Valor absoluto) - Ejercicio 42, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 16, Sección 2.6 (Desigualdades) - Ejercicio 80, Sección 2.1 (Ecuaciones) - Ejercicio 63, Sección 2.2 (Problemas de aplicación) - Ejercicio 23, Sección 2.7 (Valor absoluto) - Ejercicio 17, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 40, Sección 2.1 (Ecuaciones) - Ejercicio 53, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 67, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 5, Sección 2.4 (Números complejos) - Ejercicio 42, Sección 2.6 (Desigualdades) - Ejercicio 47, Sección 2.7 (Valor absoluto) - Ejercicio 27, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 51, Sección 2.7 (Valor absoluto) - Ejercicio 32, Sección 2.6 (Desigualdades) - Ejercicio 23, Sección 2.1 (Ecuaciones) - Ejercicio 24, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 46, Sección 2.2 (Problemas de aplicación) - Ejercicio 17, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 66, Sección 2.7 (Valor absoluto) - Ejercicio 35, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 9, Sección 2.2 (Problemas de aplicación) - Ejercicio 26</t>
-  </si>
-  <si>
-    <t>TIRADO CHAVARRIA WILFRAN DE JESUS</t>
-  </si>
-  <si>
-    <t>Sección 2.4 (Números complejos) - Ejercicio 28, Sección 2.7 (Valor absoluto) - Ejercicio 9, Sección 2.1 (Ecuaciones) - Ejercicio 36, Sección 2.7 (Valor absoluto) - Ejercicio 40, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 80, Sección 2.6 (Desigualdades) - Ejercicio 38, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 69, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 14, Sección 2.4 (Números complejos) - Ejercicio 1, Sección 2.1 (Ecuaciones) - Ejercicio 40, Sección 2.4 (Números complejos) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 32, Sección 2.6 (Desigualdades) - Ejercicio 7, Sección 2.2 (Problemas de aplicación) - Ejercicio 39, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 25, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 71, Sección 2.7 (Valor absoluto) - Ejercicio 3, Sección 2.1 (Ecuaciones) - Ejercicio 7, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 30, Sección 2.4 (Números complejos) - Ejercicio 59, Sección 2.6 (Desigualdades) - Ejercicio 76, Sección 2.6 (Desigualdades) - Ejercicio 68, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 44, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 23, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 20, Sección 2.1 (Ecuaciones) - Ejercicio 67</t>
-  </si>
-  <si>
-    <t>VERGARA ACEVEDO SARA CRISTINA</t>
-  </si>
-  <si>
-    <t>Sección 2.6 (Desigualdades) - Ejercicio 51, Sección 2.2 (Problemas de aplicación) - Ejercicio 35, Sección 2.6 (Desigualdades) - Ejercicio 24, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 9, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 75, Sección 2.6 (Desigualdades) - Ejercicio 55, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 30, Sección 2.6 (Desigualdades) - Ejercicio 82, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 63, Sección 2.4 (Números complejos) - Ejercicio 29, Sección 2.2 (Problemas de aplicación) - Ejercicio 13, Sección 2.7 (Valor absoluto) - Ejercicio 30, Sección 2.7 (Valor absoluto) - Ejercicio 20, Sección 2.6 (Desigualdades) - Ejercicio 35, Sección 2.4 (Números complejos) - Ejercicio 5, Sección 2.1 (Ecuaciones) - Ejercicio 35, Sección 2.6 (Desigualdades) - Ejercicio 20, Sección 2.6 (Desigualdades) - Ejercicio 32, Sección 2.6 (Desigualdades) - Ejercicio 15, Sección 2.7 (Valor absoluto) - Ejercicio 41, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 58, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 25, Sección 2.2 (Problemas de aplicación) - Ejercicio 3, Sección 2.6 (Desigualdades) - Ejercicio 12, Sección 2.4 (Números complejos) - Ejercicio 27, Sección 2.4 (Números complejos) - Ejercicio 37</t>
-  </si>
-  <si>
-    <t>VILORIA SIERRA ALEXANDER</t>
-  </si>
-  <si>
-    <t>Sección 2.6 (Desigualdades) - Ejercicio 52, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 29, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 59, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 35, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 78, Sección 2.7 (Valor absoluto) - Ejercicio 48, Sección 2.4 (Números complejos) - Ejercicio 57, Sección 2.1 (Ecuaciones) - Ejercicio 55, Sección 2.2 (Problemas de aplicación) - Ejercicio 2, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 27, Sección 2.4 (Números complejos) - Ejercicio 60, Sección 2.2 (Problemas de aplicación) - Ejercicio 21, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 54, Sección 2.6 (Desigualdades) - Ejercicio 33, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 42, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 40, Sección 2.6 (Desigualdades) - Ejercicio 29, Sección 2.6 (Desigualdades) - Ejercicio 39, Sección 2.4 (Números complejos) - Ejercicio 2, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 22, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 48, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 48, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 21, Sección 2.1 (Ecuaciones) - Ejercicio 64, Sección 2.6 (Desigualdades) - Ejercicio 10, Sección 2.4 (Números complejos) - Ejercicio 55</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -171,34 +46,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -268,14 +133,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -284,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="2D3236"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -563,170 +420,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="2" width="73.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ejercicios asignados</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ACEVEDO BELEÑO SANTIAGO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sección 2.4 (Números complejos) - Ejercicio 48, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 43, Sección 2.1 (Ecuaciones) - Ejercicio 51, Sección 2.6 (Desigualdades) - Ejercicio 56, Sección 2.6 (Desigualdades) - Ejercicio 52, Sección 2.1 (Ecuaciones) - Ejercicio 5, Sección 2.2 (Problemas de aplicación) - Ejercicio 12, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 45, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 38, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 13, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 8, Sección 2.4 (Números complejos) - Ejercicio 50, Sección 2.6 (Desigualdades) - Ejercicio 27, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 36, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 33, Sección 2.2 (Problemas de aplicación) - Ejercicio 23, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 25, Sección 2.4 (Números complejos) - Ejercicio 52, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 56, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 21, Sección 2.6 (Desigualdades) - Ejercicio 36, Sección 2.2 (Problemas de aplicación) - Ejercicio 17, Sección 2.2 (Problemas de aplicación) - Ejercicio 38, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 71, Sección 2.6 (Desigualdades) - Ejercicio 5, Sección 2.2 (Problemas de aplicación) - Ejercicio 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CANOLE PEÑATE SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sección 2.1 (Ecuaciones) - Ejercicio 57, Sección 2.6 (Desigualdades) - Ejercicio 31, Sección 2.7 (Valor absoluto) - Ejercicio 37, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 19, Sección 2.7 (Valor absoluto) - Ejercicio 9, Sección 2.7 (Valor absoluto) - Ejercicio 49, Sección 2.6 (Desigualdades) - Ejercicio 81, Sección 2.1 (Ecuaciones) - Ejercicio 2, Sección 2.7 (Valor absoluto) - Ejercicio 55, Sección 2.1 (Ecuaciones) - Ejercicio 6, Sección 2.1 (Ecuaciones) - Ejercicio 61, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 12, Sección 2.6 (Desigualdades) - Ejercicio 62, Sección 2.4 (Números complejos) - Ejercicio 45, Sección 2.4 (Números complejos) - Ejercicio 21, Sección 2.1 (Ecuaciones) - Ejercicio 33, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 68, Sección 2.1 (Ecuaciones) - Ejercicio 14, Sección 2.1 (Ecuaciones) - Ejercicio 23, Sección 2.6 (Desigualdades) - Ejercicio 9, Sección 2.2 (Problemas de aplicación) - Ejercicio 28, Sección 2.4 (Números complejos) - Ejercicio 62, Sección 2.2 (Problemas de aplicación) - Ejercicio 8, Sección 2.6 (Desigualdades) - Ejercicio 12, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 24, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 69</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CORREA RESTREPO NICOLAS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sección 2.6 (Desigualdades) - Ejercicio 70, Sección 2.6 (Desigualdades) - Ejercicio 46, Sección 2.1 (Ecuaciones) - Ejercicio 8, Sección 2.4 (Números complejos) - Ejercicio 37, Sección 2.7 (Valor absoluto) - Ejercicio 18, Sección 2.1 (Ecuaciones) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 6, Sección 2.4 (Números complejos) - Ejercicio 23, Sección 2.7 (Valor absoluto) - Ejercicio 48, Sección 2.7 (Valor absoluto) - Ejercicio 28, Sección 2.2 (Problemas de aplicación) - Ejercicio 3, Sección 2.4 (Números complejos) - Ejercicio 56, Sección 2.6 (Desigualdades) - Ejercicio 74, Sección 2.4 (Números complejos) - Ejercicio 35, Sección 2.7 (Valor absoluto) - Ejercicio 25, Sección 2.4 (Números complejos) - Ejercicio 38, Sección 2.1 (Ecuaciones) - Ejercicio 39, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 22, Sección 2.6 (Desigualdades) - Ejercicio 64, Sección 2.7 (Valor absoluto) - Ejercicio 46, Sección 2.7 (Valor absoluto) - Ejercicio 24, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 5, Sección 2.4 (Números complejos) - Ejercicio 58, Sección 2.7 (Valor absoluto) - Ejercicio 29, Sección 2.1 (Ecuaciones) - Ejercicio 43, Sección 2.1 (Ecuaciones) - Ejercicio 49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HERNANDEZ GOMEZ MICHAEL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sección 2.4 (Números complejos) - Ejercicio 47, Sección 2.6 (Desigualdades) - Ejercicio 40, Sección 2.1 (Ecuaciones) - Ejercicio 69, Sección 2.1 (Ecuaciones) - Ejercicio 76, Sección 2.4 (Números complejos) - Ejercicio 32, Sección 2.1 (Ecuaciones) - Ejercicio 45, Sección 2.4 (Números complejos) - Ejercicio 34, Sección 2.1 (Ecuaciones) - Ejercicio 74, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 55, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 45, Sección 2.1 (Ecuaciones) - Ejercicio 71, Sección 2.6 (Desigualdades) - Ejercicio 24, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 47, Sección 2.6 (Desigualdades) - Ejercicio 11, Sección 2.7 (Valor absoluto) - Ejercicio 20, Sección 2.7 (Valor absoluto) - Ejercicio 38, Sección 2.2 (Problemas de aplicación) - Ejercicio 10, Sección 2.7 (Valor absoluto) - Ejercicio 35, Sección 2.1 (Ecuaciones) - Ejercicio 26, Sección 2.1 (Ecuaciones) - Ejercicio 3, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 39, Sección 2.6 (Desigualdades) - Ejercicio 59, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 7, Sección 2.2 (Problemas de aplicación) - Ejercicio 20, Sección 2.1 (Ecuaciones) - Ejercicio 70</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MARIN VILLARREAL PABLO ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sección 2.4 (Números complejos) - Ejercicio 17, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 18, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 58, Sección 2.4 (Números complejos) - Ejercicio 4, Sección 2.7 (Valor absoluto) - Ejercicio 12, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 56, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 72, Sección 2.1 (Ecuaciones) - Ejercicio 34, Sección 2.6 (Desigualdades) - Ejercicio 7, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 37, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 70, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 23, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 30, Sección 2.6 (Desigualdades) - Ejercicio 66, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 70, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 71, Sección 2.6 (Desigualdades) - Ejercicio 21, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 34, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 66, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 50, Sección 2.7 (Valor absoluto) - Ejercicio 40, Sección 2.6 (Desigualdades) - Ejercicio 29, Sección 2.6 (Desigualdades) - Ejercicio 26, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 32, Sección 2.2 (Problemas de aplicación) - Ejercicio 34</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MARTINEZ MANJARREZ DANIELA ESTHER</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sección 2.6 (Desigualdades) - Ejercicio 42, Sección 2.6 (Desigualdades) - Ejercicio 79, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 49, Sección 2.1 (Ecuaciones) - Ejercicio 24, Sección 2.1 (Ecuaciones) - Ejercicio 48, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 36, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 65, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 67, Sección 2.1 (Ecuaciones) - Ejercicio 20, Sección 2.6 (Desigualdades) - Ejercicio 16, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 11, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 31, Sección 2.7 (Valor absoluto) - Ejercicio 31, Sección 2.6 (Desigualdades) - Ejercicio 76, Sección 2.1 (Ecuaciones) - Ejercicio 36, Sección 2.4 (Números complejos) - Ejercicio 29, Sección 2.1 (Ecuaciones) - Ejercicio 38, Sección 2.1 (Ecuaciones) - Ejercicio 59, Sección 2.6 (Desigualdades) - Ejercicio 15, Sección 2.1 (Ecuaciones) - Ejercicio 52, Sección 2.4 (Números complejos) - Ejercicio 55, Sección 2.4 (Números complejos) - Ejercicio 30, Sección 2.2 (Problemas de aplicación) - Ejercicio 31, Sección 2.1 (Ecuaciones) - Ejercicio 73</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MEJIA GUZMAN SAMUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 75, Sección 2.2 (Problemas de aplicación) - Ejercicio 21, Sección 2.6 (Desigualdades) - Ejercicio 53, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 26, Sección 2.7 (Valor absoluto) - Ejercicio 5, Sección 2.7 (Valor absoluto) - Ejercicio 17, Sección 2.1 (Ecuaciones) - Ejercicio 63, Sección 2.6 (Desigualdades) - Ejercicio 39, Sección 2.7 (Valor absoluto) - Ejercicio 6, Sección 2.4 (Números complejos) - Ejercicio 9, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 59, Sección 2.7 (Valor absoluto) - Ejercicio 45, Sección 2.2 (Problemas de aplicación) - Ejercicio 5, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 46, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 82, Sección 2.7 (Valor absoluto) - Ejercicio 30, Sección 2.7 (Valor absoluto) - Ejercicio 36, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 40, Sección 2.1 (Ecuaciones) - Ejercicio 1, Sección 2.1 (Ecuaciones) - Ejercicio 77, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 62, Sección 2.7 (Valor absoluto) - Ejercicio 8, Sección 2.1 (Ecuaciones) - Ejercicio 19, Sección 2.6 (Desigualdades) - Ejercicio 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NIEBLES BARRERA ALEXANDER ISAAC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sección 2.7 (Valor absoluto) - Ejercicio 33, Sección 2.7 (Valor absoluto) - Ejercicio 21, Sección 2.1 (Ecuaciones) - Ejercicio 7, Sección 2.7 (Valor absoluto) - Ejercicio 19, Sección 2.6 (Desigualdades) - Ejercicio 85, Sección 2.4 (Números complejos) - Ejercicio 24, Sección 2.4 (Números complejos) - Ejercicio 42, Sección 2.2 (Problemas de aplicación) - Ejercicio 7, Sección 2.6 (Desigualdades) - Ejercicio 45, Sección 2.7 (Valor absoluto) - Ejercicio 43, Sección 2.7 (Valor absoluto) - Ejercicio 2, Sección 2.6 (Desigualdades) - Ejercicio 75, Sección 2.2 (Problemas de aplicación) - Ejercicio 27, Sección 2.4 (Números complejos) - Ejercicio 13, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 64, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 73, Sección 2.6 (Desigualdades) - Ejercicio 33, Sección 2.6 (Desigualdades) - Ejercicio 80, Sección 2.6 (Desigualdades) - Ejercicio 73, Sección 2.2 (Problemas de aplicación) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 48, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 37, Sección 2.1 (Ecuaciones) - Ejercicio 44, Sección 2.4 (Números complejos) - Ejercicio 26, Sección 2.7 (Valor absoluto) - Ejercicio 51</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>OQUENDO MONA CRISTIAN GABRIEL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sección 2.2 (Problemas de aplicación) - Ejercicio 29, Sección 2.4 (Números complejos) - Ejercicio 18, Sección 2.7 (Valor absoluto) - Ejercicio 44, Sección 2.6 (Desigualdades) - Ejercicio 86, Sección 2.7 (Valor absoluto) - Ejercicio 47, Sección 2.1 (Ecuaciones) - Ejercicio 60, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 46, Sección 2.1 (Ecuaciones) - Ejercicio 40, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 31, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 54, Sección 2.2 (Problemas de aplicación) - Ejercicio 24, Sección 2.2 (Problemas de aplicación) - Ejercicio 39, Sección 2.6 (Desigualdades) - Ejercicio 47, Sección 2.4 (Números complejos) - Ejercicio 27, Sección 2.2 (Problemas de aplicación) - Ejercicio 16, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 55, Sección 2.4 (Números complejos) - Ejercicio 44, Sección 2.4 (Números complejos) - Ejercicio 22, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 6, Sección 2.7 (Valor absoluto) - Ejercicio 41, Sección 2.2 (Problemas de aplicación) - Ejercicio 33, Sección 2.6 (Desigualdades) - Ejercicio 18, Sección 2.6 (Desigualdades) - Ejercicio 50, Sección 2.6 (Desigualdades) - Ejercicio 87</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PATINO GIL CHRISTIAN FELIPE</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sección 2.1 (Ecuaciones) - Ejercicio 64, Sección 2.6 (Desigualdades) - Ejercicio 28, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 61, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 40, Sección 2.4 (Números complejos) - Ejercicio 3, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 52, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 8, Sección 2.4 (Números complejos) - Ejercicio 60, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 43, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 14, Sección 2.7 (Valor absoluto) - Ejercicio 13, Sección 2.1 (Ecuaciones) - Ejercicio 4, Sección 2.6 (Desigualdades) - Ejercicio 17, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 81, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 3, Sección 2.6 (Desigualdades) - Ejercicio 58, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 10, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 15, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 53, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 17, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 9, Sección 2.6 (Desigualdades) - Ejercicio 54, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 44, Sección 2.6 (Desigualdades) - Ejercicio 57, Sección 2.6 (Desigualdades) - Ejercicio 67</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PINO VERGARA LIZETH</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sección 2.1 (Ecuaciones) - Ejercicio 10, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 13, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 28, Sección 2.7 (Valor absoluto) - Ejercicio 1, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 60, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 2, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 12, Sección 2.4 (Números complejos) - Ejercicio 14, Sección 2.4 (Números complejos) - Ejercicio 39, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 20, Sección 2.1 (Ecuaciones) - Ejercicio 18, Sección 2.4 (Números complejos) - Ejercicio 19, Sección 2.4 (Números complejos) - Ejercicio 40, Sección 2.2 (Problemas de aplicación) - Ejercicio 32, Sección 2.1 (Ecuaciones) - Ejercicio 41, Sección 2.1 (Ecuaciones) - Ejercicio 27, Sección 2.4 (Números complejos) - Ejercicio 16, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 68, Sección 2.6 (Desigualdades) - Ejercicio 71, Sección 2.7 (Valor absoluto) - Ejercicio 27, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 78, Sección 2.6 (Desigualdades) - Ejercicio 49, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 4, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 18, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 79</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RIVERA GUZMAN CRISTIAN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 1, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 28, Sección 2.1 (Ecuaciones) - Ejercicio 42, Sección 2.4 (Números complejos) - Ejercicio 28, Sección 2.1 (Ecuaciones) - Ejercicio 56, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 41, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 48, Sección 2.1 (Ecuaciones) - Ejercicio 66, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 7, Sección 2.1 (Ecuaciones) - Ejercicio 50, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 39, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 21, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 10, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 33, Sección 2.4 (Números complejos) - Ejercicio 46, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 20, Sección 2.6 (Desigualdades) - Ejercicio 20, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 32, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 47, Sección 2.7 (Valor absoluto) - Ejercicio 34, Sección 2.1 (Ecuaciones) - Ejercicio 17, Sección 2.4 (Números complejos) - Ejercicio 1, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 23, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 16, Sección 2.7 (Valor absoluto) - Ejercicio 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ROMERO CALDERA JUAN ESTEBAN</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sección 2.7 (Valor absoluto) - Ejercicio 52, Sección 2.2 (Problemas de aplicación) - Ejercicio 36, Sección 2.2 (Problemas de aplicación) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 54, Sección 2.6 (Desigualdades) - Ejercicio 4, Sección 2.2 (Problemas de aplicación) - Ejercicio 6, Sección 2.4 (Números complejos) - Ejercicio 36, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 27, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 66, Sección 2.1 (Ecuaciones) - Ejercicio 68, Sección 2.4 (Números complejos) - Ejercicio 41, Sección 2.6 (Desigualdades) - Ejercicio 63, Sección 2.1 (Ecuaciones) - Ejercicio 16, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 64, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 67, Sección 2.6 (Desigualdades) - Ejercicio 14, Sección 2.6 (Desigualdades) - Ejercicio 35, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 5, Sección 2.4 (Números complejos) - Ejercicio 25, Sección 2.6 (Desigualdades) - Ejercicio 60, Sección 2.1 (Ecuaciones) - Ejercicio 72, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 53, Sección 2.1 (Ecuaciones) - Ejercicio 13, Sección 2.4 (Números complejos) - Ejercicio 57, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SÁNCHEZ HERRERA JUAN ESTEVAN</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sección 2.7 (Valor absoluto) - Ejercicio 16, Sección 2.1 (Ecuaciones) - Ejercicio 22, Sección 2.6 (Desigualdades) - Ejercicio 43, Sección 2.1 (Ecuaciones) - Ejercicio 67, Sección 2.2 (Problemas de aplicación) - Ejercicio 15, Sección 2.6 (Desigualdades) - Ejercicio 84, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 2, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 63, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 50, Sección 2.6 (Desigualdades) - Ejercicio 6, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 52, Sección 2.7 (Valor absoluto) - Ejercicio 7, Sección 2.2 (Problemas de aplicación) - Ejercicio 14, Sección 2.4 (Números complejos) - Ejercicio 43, Sección 2.7 (Valor absoluto) - Ejercicio 4, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 49, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 76, Sección 2.1 (Ecuaciones) - Ejercicio 25, Sección 2.7 (Valor absoluto) - Ejercicio 26, Sección 2.4 (Números complejos) - Ejercicio 15, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 1, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 25, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 59, Sección 2.1 (Ecuaciones) - Ejercicio 78, Sección 2.2 (Problemas de aplicación) - Ejercicio 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SANCHEZ PACHECO MOISES DAVID</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sección 2.1 (Ecuaciones) - Ejercicio 15, Sección 2.4 (Números complejos) - Ejercicio 2, Sección 2.4 (Números complejos) - Ejercicio 20, Sección 2.6 (Desigualdades) - Ejercicio 25, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 41, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 65, Sección 2.2 (Problemas de aplicación) - Ejercicio 11, Sección 2.6 (Desigualdades) - Ejercicio 10, Sección 2.7 (Valor absoluto) - Ejercicio 53, Sección 2.4 (Números complejos) - Ejercicio 6, Sección 2.4 (Números complejos) - Ejercicio 51, Sección 2.1 (Ecuaciones) - Ejercicio 55, Sección 2.4 (Números complejos) - Ejercicio 7, Sección 2.4 (Números complejos) - Ejercicio 54, Sección 2.4 (Números complejos) - Ejercicio 49, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 44, Sección 2.2 (Problemas de aplicación) - Ejercicio 22, Sección 2.2 (Problemas de aplicación) - Ejercicio 13, Sección 2.2 (Problemas de aplicación) - Ejercicio 9, Sección 2.6 (Desigualdades) - Ejercicio 72, Sección 2.6 (Desigualdades) - Ejercicio 78, Sección 2.6 (Desigualdades) - Ejercicio 83, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 27, Sección 2.1 (Ecuaciones) - Ejercicio 58, Sección 2.6 (Desigualdades) - Ejercicio 41</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TIRADO CHAVARRIA WILFRAN DE JESUS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sección 2.6 (Desigualdades) - Ejercicio 22, Sección 2.1 (Ecuaciones) - Ejercicio 31, Sección 2.1 (Ecuaciones) - Ejercicio 28, Sección 2.6 (Desigualdades) - Ejercicio 89, Sección 2.1 (Ecuaciones) - Ejercicio 47, Sección 2.6 (Desigualdades) - Ejercicio 1, Sección 2.7 (Valor absoluto) - Ejercicio 23, Sección 2.6 (Desigualdades) - Ejercicio 34, Sección 2.6 (Desigualdades) - Ejercicio 44, Sección 2.6 (Desigualdades) - Ejercicio 38, Sección 2.4 (Números complejos) - Ejercicio 8, Sección 2.4 (Números complejos) - Ejercicio 5, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 69, Sección 2.4 (Números complejos) - Ejercicio 31, Sección 2.1 (Ecuaciones) - Ejercicio 32, Sección 2.4 (Números complejos) - Ejercicio 61, Sección 2.6 (Desigualdades) - Ejercicio 82, Sección 2.6 (Desigualdades) - Ejercicio 13, Sección 2.6 (Desigualdades) - Ejercicio 69, Sección 2.1 (Ecuaciones) - Ejercicio 12, Sección 2.1 (Ecuaciones) - Ejercicio 54, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 29, Sección 2.6 (Desigualdades) - Ejercicio 55, Sección 2.2 (Problemas de aplicación) - Ejercicio 2, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>VERGARA ACEVEDO SARA CRISTINA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sección 2.1 (Ecuaciones) - Ejercicio 75, Sección 2.1 (Ecuaciones) - Ejercicio 46, Sección 2.4 (Números complejos) - Ejercicio 11, Sección 2.6 (Desigualdades) - Ejercicio 32, Sección 2.2 (Problemas de aplicación) - Ejercicio 35, Sección 2.7 (Valor absoluto) - Ejercicio 11, Sección 2.6 (Desigualdades) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 4, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 14, Sección 2.7 (Valor absoluto) - Ejercicio 39, Sección 2.2 (Problemas de aplicación) - Ejercicio 1, Sección 2.1 (Ecuaciones) - Ejercicio 53, Sección 2.7 (Valor absoluto) - Ejercicio 54, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 77, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 51, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 35, Sección 2.4 (Números complejos) - Ejercicio 59, Sección 2.4 (Números complejos) - Ejercicio 12, Sección 2.6 (Desigualdades) - Ejercicio 77, Sección 2.7 (Valor absoluto) - Ejercicio 42, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 57, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 17, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 83, Sección 2.7 (Valor absoluto) - Ejercicio 32, Sección 2.7 (Valor absoluto) - Ejercicio 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>VILORIA SIERRA ALEXANDER</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sección 2.1 (Ecuaciones) - Ejercicio 37, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 42, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 60, Sección 2.1 (Ecuaciones) - Ejercicio 62, Sección 2.6 (Desigualdades) - Ejercicio 3, Sección 2.2 (Problemas de aplicación) - Ejercicio 26, Sección 2.1 (Ecuaciones) - Ejercicio 29, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 74, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 58, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 80, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 35, Sección 2.4 (Números complejos) - Ejercicio 53, Sección 2.7 (Valor absoluto) - Ejercicio 14, Sección 2.6 (Desigualdades) - Ejercicio 65, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 62, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 38, Sección 2.2 (Problemas de aplicación) - Ejercicio 37, Sección 2.7 (Valor absoluto) - Ejercicio 10, Sección 2.6 (Desigualdades) - Ejercicio 61, Sección 2.7 (Valor absoluto) - Ejercicio 3, Sección 2.6 (Desigualdades) - Ejercicio 8, Sección 2.6 (Desigualdades) - Ejercicio 51, Sección 2.6 (Desigualdades) - Ejercicio 19, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 57, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MARCO JULIO CAÑAS CAMPILLO</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sección 2.1 (Ecuaciones) - Ejercicio 21, Sección 2.1 (Ecuaciones) - Ejercicio 35, Sección 2.6 (Desigualdades) - Ejercicio 68, Sección 2.6 (Desigualdades) - Ejercicio 2, Sección 2.6 (Desigualdades) - Ejercicio 37, Sección 2.2 (Problemas de aplicación) - Ejercicio 4, Sección 2.7 (Valor absoluto) - Ejercicio 50, Sección 2.6 (Desigualdades) - Ejercicio 48, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 51, Sección 2.2 (Problemas de aplicación) - Ejercicio 40, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 42, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 61, Sección 2.1 (Ecuaciones) - Ejercicio 9, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 22, Sección 2.1 (Ecuaciones) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 29, Sección 2.6 (Desigualdades) - Ejercicio 88, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 24, Sección 2.4 (Números complejos) - Ejercicio 33, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 16, Sección 2.1 (Ecuaciones) - Ejercicio 65, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 34, Sección 2.4 (Números complejos) - Ejercicio 10, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 15, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 63</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/3_planeacion/2_classes/3_unidad_2_ecuaciones_e_inecuaciones/apendice/ejercicios_colaboracion_equipo/asignacion_ejercicios_cap2.xlsx
+++ b/3_planeacion/2_classes/3_unidad_2_ecuaciones_e_inecuaciones/apendice/ejercicios_colaboracion_equipo/asignacion_ejercicios_cap2.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sección 2.4 (Números complejos) - Ejercicio 48, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 43, Sección 2.1 (Ecuaciones) - Ejercicio 51, Sección 2.6 (Desigualdades) - Ejercicio 56, Sección 2.6 (Desigualdades) - Ejercicio 52, Sección 2.1 (Ecuaciones) - Ejercicio 5, Sección 2.2 (Problemas de aplicación) - Ejercicio 12, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 45, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 38, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 13, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 8, Sección 2.4 (Números complejos) - Ejercicio 50, Sección 2.6 (Desigualdades) - Ejercicio 27, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 36, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 33, Sección 2.2 (Problemas de aplicación) - Ejercicio 23, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 25, Sección 2.4 (Números complejos) - Ejercicio 52, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 56, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 21, Sección 2.6 (Desigualdades) - Ejercicio 36, Sección 2.2 (Problemas de aplicación) - Ejercicio 17, Sección 2.2 (Problemas de aplicación) - Ejercicio 38, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 71, Sección 2.6 (Desigualdades) - Ejercicio 5, Sección 2.2 (Problemas de aplicación) - Ejercicio 25</t>
+          <t>Sección 2.1 (Ecuaciones) - Ejercicio 54, Sección 2.4 (Números complejos) - Ejercicio 61, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 71, Sección 2.1 (Ecuaciones) - Ejercicio 51, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 70, Sección 2.6 (Desigualdades) - Ejercicio 17, Sección 2.7 (Valor absoluto) - Ejercicio 35, Sección 2.2 (Problemas de aplicación) - Ejercicio 4, Sección 2.1 (Ecuaciones) - Ejercicio 26, Sección 2.7 (Valor absoluto) - Ejercicio 3, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 56, Sección 2.7 (Valor absoluto) - Ejercicio 19, Sección 2.6 (Desigualdades) - Ejercicio 37, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 63, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 58, Sección 2.6 (Desigualdades) - Ejercicio 28, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 42, Sección 2.1 (Ecuaciones) - Ejercicio 72, Sección 2.6 (Desigualdades) - Ejercicio 46, Sección 2.1 (Ecuaciones) - Ejercicio 71, Sección 2.1 (Ecuaciones) - Ejercicio 74, Sección 2.6 (Desigualdades) - Ejercicio 12, Sección 2.1 (Ecuaciones) - Ejercicio 52, Sección 2.4 (Números complejos) - Ejercicio 45, Sección 2.1 (Ecuaciones) - Ejercicio 64, Sección 2.6 (Desigualdades) - Ejercicio 72</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sección 2.1 (Ecuaciones) - Ejercicio 57, Sección 2.6 (Desigualdades) - Ejercicio 31, Sección 2.7 (Valor absoluto) - Ejercicio 37, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 19, Sección 2.7 (Valor absoluto) - Ejercicio 9, Sección 2.7 (Valor absoluto) - Ejercicio 49, Sección 2.6 (Desigualdades) - Ejercicio 81, Sección 2.1 (Ecuaciones) - Ejercicio 2, Sección 2.7 (Valor absoluto) - Ejercicio 55, Sección 2.1 (Ecuaciones) - Ejercicio 6, Sección 2.1 (Ecuaciones) - Ejercicio 61, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 12, Sección 2.6 (Desigualdades) - Ejercicio 62, Sección 2.4 (Números complejos) - Ejercicio 45, Sección 2.4 (Números complejos) - Ejercicio 21, Sección 2.1 (Ecuaciones) - Ejercicio 33, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 68, Sección 2.1 (Ecuaciones) - Ejercicio 14, Sección 2.1 (Ecuaciones) - Ejercicio 23, Sección 2.6 (Desigualdades) - Ejercicio 9, Sección 2.2 (Problemas de aplicación) - Ejercicio 28, Sección 2.4 (Números complejos) - Ejercicio 62, Sección 2.2 (Problemas de aplicación) - Ejercicio 8, Sección 2.6 (Desigualdades) - Ejercicio 12, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 24, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 69</t>
+          <t>Sección 2.4 (Números complejos) - Ejercicio 23, Sección 2.4 (Números complejos) - Ejercicio 54, Sección 2.4 (Números complejos) - Ejercicio 16, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 10, Sección 2.6 (Desigualdades) - Ejercicio 61, Sección 2.1 (Ecuaciones) - Ejercicio 76, Sección 2.1 (Ecuaciones) - Ejercicio 42, Sección 2.6 (Desigualdades) - Ejercicio 84, Sección 2.6 (Desigualdades) - Ejercicio 53, Sección 2.2 (Problemas de aplicación) - Ejercicio 2, Sección 2.4 (Números complejos) - Ejercicio 13, Sección 2.2 (Problemas de aplicación) - Ejercicio 5, Sección 2.1 (Ecuaciones) - Ejercicio 49, Sección 2.4 (Números complejos) - Ejercicio 35, Sección 2.1 (Ecuaciones) - Ejercicio 78, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 46, Sección 2.1 (Ecuaciones) - Ejercicio 34, Sección 2.4 (Números complejos) - Ejercicio 47, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 48, Sección 2.6 (Desigualdades) - Ejercicio 25, Sección 2.6 (Desigualdades) - Ejercicio 74, Sección 2.2 (Problemas de aplicación) - Ejercicio 20, Sección 2.1 (Ecuaciones) - Ejercicio 70, Sección 2.1 (Ecuaciones) - Ejercicio 24, Sección 2.4 (Números complejos) - Ejercicio 3, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 59</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sección 2.6 (Desigualdades) - Ejercicio 70, Sección 2.6 (Desigualdades) - Ejercicio 46, Sección 2.1 (Ecuaciones) - Ejercicio 8, Sección 2.4 (Números complejos) - Ejercicio 37, Sección 2.7 (Valor absoluto) - Ejercicio 18, Sección 2.1 (Ecuaciones) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 6, Sección 2.4 (Números complejos) - Ejercicio 23, Sección 2.7 (Valor absoluto) - Ejercicio 48, Sección 2.7 (Valor absoluto) - Ejercicio 28, Sección 2.2 (Problemas de aplicación) - Ejercicio 3, Sección 2.4 (Números complejos) - Ejercicio 56, Sección 2.6 (Desigualdades) - Ejercicio 74, Sección 2.4 (Números complejos) - Ejercicio 35, Sección 2.7 (Valor absoluto) - Ejercicio 25, Sección 2.4 (Números complejos) - Ejercicio 38, Sección 2.1 (Ecuaciones) - Ejercicio 39, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 22, Sección 2.6 (Desigualdades) - Ejercicio 64, Sección 2.7 (Valor absoluto) - Ejercicio 46, Sección 2.7 (Valor absoluto) - Ejercicio 24, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 5, Sección 2.4 (Números complejos) - Ejercicio 58, Sección 2.7 (Valor absoluto) - Ejercicio 29, Sección 2.1 (Ecuaciones) - Ejercicio 43, Sección 2.1 (Ecuaciones) - Ejercicio 49</t>
+          <t>Sección 2.4 (Números complejos) - Ejercicio 12, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 82, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 12, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 53, Sección 2.4 (Números complejos) - Ejercicio 28, Sección 2.2 (Problemas de aplicación) - Ejercicio 3, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 15, Sección 2.1 (Ecuaciones) - Ejercicio 43, Sección 2.7 (Valor absoluto) - Ejercicio 33, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 61, Sección 2.1 (Ecuaciones) - Ejercicio 7, Sección 2.7 (Valor absoluto) - Ejercicio 20, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 16, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 46, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 25, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 39, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 44, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 4, Sección 2.6 (Desigualdades) - Ejercicio 62, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 65, Sección 2.6 (Desigualdades) - Ejercicio 1, Sección 2.2 (Problemas de aplicación) - Ejercicio 13, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 52, Sección 2.7 (Valor absoluto) - Ejercicio 49, Sección 2.6 (Desigualdades) - Ejercicio 80, Sección 2.1 (Ecuaciones) - Ejercicio 1</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sección 2.4 (Números complejos) - Ejercicio 47, Sección 2.6 (Desigualdades) - Ejercicio 40, Sección 2.1 (Ecuaciones) - Ejercicio 69, Sección 2.1 (Ecuaciones) - Ejercicio 76, Sección 2.4 (Números complejos) - Ejercicio 32, Sección 2.1 (Ecuaciones) - Ejercicio 45, Sección 2.4 (Números complejos) - Ejercicio 34, Sección 2.1 (Ecuaciones) - Ejercicio 74, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 55, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 45, Sección 2.1 (Ecuaciones) - Ejercicio 71, Sección 2.6 (Desigualdades) - Ejercicio 24, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 47, Sección 2.6 (Desigualdades) - Ejercicio 11, Sección 2.7 (Valor absoluto) - Ejercicio 20, Sección 2.7 (Valor absoluto) - Ejercicio 38, Sección 2.2 (Problemas de aplicación) - Ejercicio 10, Sección 2.7 (Valor absoluto) - Ejercicio 35, Sección 2.1 (Ecuaciones) - Ejercicio 26, Sección 2.1 (Ecuaciones) - Ejercicio 3, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 39, Sección 2.6 (Desigualdades) - Ejercicio 59, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 7, Sección 2.2 (Problemas de aplicación) - Ejercicio 20, Sección 2.1 (Ecuaciones) - Ejercicio 70</t>
+          <t>Sección 2.6 (Desigualdades) - Ejercicio 52, Sección 2.4 (Números complejos) - Ejercicio 14, Sección 2.4 (Números complejos) - Ejercicio 34, Sección 2.2 (Problemas de aplicación) - Ejercicio 17, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 49, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 34, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 26, Sección 2.2 (Problemas de aplicación) - Ejercicio 23, Sección 2.7 (Valor absoluto) - Ejercicio 34, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 8, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 1, Sección 2.2 (Problemas de aplicación) - Ejercicio 38, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 20, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 20, Sección 2.2 (Problemas de aplicación) - Ejercicio 39, Sección 2.1 (Ecuaciones) - Ejercicio 59, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 53, Sección 2.2 (Problemas de aplicación) - Ejercicio 18, Sección 2.4 (Números complejos) - Ejercicio 2, Sección 2.4 (Números complejos) - Ejercicio 46, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 72, Sección 2.2 (Problemas de aplicación) - Ejercicio 36, Sección 2.1 (Ecuaciones) - Ejercicio 35, Sección 2.4 (Números complejos) - Ejercicio 37, Sección 2.6 (Desigualdades) - Ejercicio 42</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sección 2.4 (Números complejos) - Ejercicio 17, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 18, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 58, Sección 2.4 (Números complejos) - Ejercicio 4, Sección 2.7 (Valor absoluto) - Ejercicio 12, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 56, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 72, Sección 2.1 (Ecuaciones) - Ejercicio 34, Sección 2.6 (Desigualdades) - Ejercicio 7, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 37, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 70, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 23, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 30, Sección 2.6 (Desigualdades) - Ejercicio 66, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 70, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 71, Sección 2.6 (Desigualdades) - Ejercicio 21, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 34, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 66, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 50, Sección 2.7 (Valor absoluto) - Ejercicio 40, Sección 2.6 (Desigualdades) - Ejercicio 29, Sección 2.6 (Desigualdades) - Ejercicio 26, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 32, Sección 2.2 (Problemas de aplicación) - Ejercicio 34</t>
+          <t>Sección 2.1 (Ecuaciones) - Ejercicio 25, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 19, Sección 2.1 (Ecuaciones) - Ejercicio 58, Sección 2.6 (Desigualdades) - Ejercicio 34, Sección 2.1 (Ecuaciones) - Ejercicio 63, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 70, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 1, Sección 2.6 (Desigualdades) - Ejercicio 7, Sección 2.7 (Valor absoluto) - Ejercicio 54, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 77, Sección 2.1 (Ecuaciones) - Ejercicio 36, Sección 2.7 (Valor absoluto) - Ejercicio 41, Sección 2.7 (Valor absoluto) - Ejercicio 55, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 32, Sección 2.6 (Desigualdades) - Ejercicio 59, Sección 2.1 (Ecuaciones) - Ejercicio 12, Sección 2.7 (Valor absoluto) - Ejercicio 6, Sección 2.4 (Números complejos) - Ejercicio 6, Sección 2.1 (Ecuaciones) - Ejercicio 75, Sección 2.1 (Ecuaciones) - Ejercicio 4, Sección 2.7 (Valor absoluto) - Ejercicio 5, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 24, Sección 2.7 (Valor absoluto) - Ejercicio 23, Sección 2.4 (Números complejos) - Ejercicio 53</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sección 2.6 (Desigualdades) - Ejercicio 42, Sección 2.6 (Desigualdades) - Ejercicio 79, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 49, Sección 2.1 (Ecuaciones) - Ejercicio 24, Sección 2.1 (Ecuaciones) - Ejercicio 48, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 36, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 65, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 67, Sección 2.1 (Ecuaciones) - Ejercicio 20, Sección 2.6 (Desigualdades) - Ejercicio 16, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 11, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 31, Sección 2.7 (Valor absoluto) - Ejercicio 31, Sección 2.6 (Desigualdades) - Ejercicio 76, Sección 2.1 (Ecuaciones) - Ejercicio 36, Sección 2.4 (Números complejos) - Ejercicio 29, Sección 2.1 (Ecuaciones) - Ejercicio 38, Sección 2.1 (Ecuaciones) - Ejercicio 59, Sección 2.6 (Desigualdades) - Ejercicio 15, Sección 2.1 (Ecuaciones) - Ejercicio 52, Sección 2.4 (Números complejos) - Ejercicio 55, Sección 2.4 (Números complejos) - Ejercicio 30, Sección 2.2 (Problemas de aplicación) - Ejercicio 31, Sección 2.1 (Ecuaciones) - Ejercicio 73</t>
+          <t>Sección 2.6 (Desigualdades) - Ejercicio 50, Sección 2.2 (Problemas de aplicación) - Ejercicio 31, Sección 2.7 (Valor absoluto) - Ejercicio 51, Sección 2.7 (Valor absoluto) - Ejercicio 43, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 66, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 35, Sección 2.2 (Problemas de aplicación) - Ejercicio 16, Sección 2.4 (Números complejos) - Ejercicio 39, Sección 2.6 (Desigualdades) - Ejercicio 15, Sección 2.1 (Ecuaciones) - Ejercicio 60, Sección 2.6 (Desigualdades) - Ejercicio 22, Sección 2.7 (Valor absoluto) - Ejercicio 37, Sección 2.1 (Ecuaciones) - Ejercicio 45, Sección 2.1 (Ecuaciones) - Ejercicio 44, Sección 2.1 (Ecuaciones) - Ejercicio 40, Sección 2.1 (Ecuaciones) - Ejercicio 17, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 51, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 26, Sección 2.4 (Números complejos) - Ejercicio 51, Sección 2.6 (Desigualdades) - Ejercicio 40, Sección 2.2 (Problemas de aplicación) - Ejercicio 6, Sección 2.7 (Valor absoluto) - Ejercicio 2, Sección 2.1 (Ecuaciones) - Ejercicio 15, Sección 2.4 (Números complejos) - Ejercicio 31, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 3</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 75, Sección 2.2 (Problemas de aplicación) - Ejercicio 21, Sección 2.6 (Desigualdades) - Ejercicio 53, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 26, Sección 2.7 (Valor absoluto) - Ejercicio 5, Sección 2.7 (Valor absoluto) - Ejercicio 17, Sección 2.1 (Ecuaciones) - Ejercicio 63, Sección 2.6 (Desigualdades) - Ejercicio 39, Sección 2.7 (Valor absoluto) - Ejercicio 6, Sección 2.4 (Números complejos) - Ejercicio 9, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 59, Sección 2.7 (Valor absoluto) - Ejercicio 45, Sección 2.2 (Problemas de aplicación) - Ejercicio 5, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 46, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 82, Sección 2.7 (Valor absoluto) - Ejercicio 30, Sección 2.7 (Valor absoluto) - Ejercicio 36, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 40, Sección 2.1 (Ecuaciones) - Ejercicio 1, Sección 2.1 (Ecuaciones) - Ejercicio 77, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 62, Sección 2.7 (Valor absoluto) - Ejercicio 8, Sección 2.1 (Ecuaciones) - Ejercicio 19, Sección 2.6 (Desigualdades) - Ejercicio 23</t>
+          <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 56, Sección 2.7 (Valor absoluto) - Ejercicio 36, Sección 2.6 (Desigualdades) - Ejercicio 65, Sección 2.7 (Valor absoluto) - Ejercicio 45, Sección 2.6 (Desigualdades) - Ejercicio 48, Sección 2.6 (Desigualdades) - Ejercicio 21, Sección 2.6 (Desigualdades) - Ejercicio 88, Sección 2.7 (Valor absoluto) - Ejercicio 1, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 27, Sección 2.1 (Ecuaciones) - Ejercicio 9, Sección 2.4 (Números complejos) - Ejercicio 20, Sección 2.4 (Números complejos) - Ejercicio 44, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 69, Sección 2.6 (Desigualdades) - Ejercicio 70, Sección 2.1 (Ecuaciones) - Ejercicio 39, Sección 2.7 (Valor absoluto) - Ejercicio 48, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 10, Sección 2.6 (Desigualdades) - Ejercicio 78, Sección 2.6 (Desigualdades) - Ejercicio 81, Sección 2.1 (Ecuaciones) - Ejercicio 37, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 63, Sección 2.4 (Números complejos) - Ejercicio 1, Sección 2.2 (Problemas de aplicación) - Ejercicio 10, Sección 2.6 (Desigualdades) - Ejercicio 82, Sección 2.4 (Números complejos) - Ejercicio 62</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sección 2.7 (Valor absoluto) - Ejercicio 33, Sección 2.7 (Valor absoluto) - Ejercicio 21, Sección 2.1 (Ecuaciones) - Ejercicio 7, Sección 2.7 (Valor absoluto) - Ejercicio 19, Sección 2.6 (Desigualdades) - Ejercicio 85, Sección 2.4 (Números complejos) - Ejercicio 24, Sección 2.4 (Números complejos) - Ejercicio 42, Sección 2.2 (Problemas de aplicación) - Ejercicio 7, Sección 2.6 (Desigualdades) - Ejercicio 45, Sección 2.7 (Valor absoluto) - Ejercicio 43, Sección 2.7 (Valor absoluto) - Ejercicio 2, Sección 2.6 (Desigualdades) - Ejercicio 75, Sección 2.2 (Problemas de aplicación) - Ejercicio 27, Sección 2.4 (Números complejos) - Ejercicio 13, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 64, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 73, Sección 2.6 (Desigualdades) - Ejercicio 33, Sección 2.6 (Desigualdades) - Ejercicio 80, Sección 2.6 (Desigualdades) - Ejercicio 73, Sección 2.2 (Problemas de aplicación) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 48, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 37, Sección 2.1 (Ecuaciones) - Ejercicio 44, Sección 2.4 (Números complejos) - Ejercicio 26, Sección 2.7 (Valor absoluto) - Ejercicio 51</t>
+          <t>Sección 2.7 (Valor absoluto) - Ejercicio 12, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 29, Sección 2.6 (Desigualdades) - Ejercicio 63, Sección 2.6 (Desigualdades) - Ejercicio 30, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 9, Sección 2.4 (Números complejos) - Ejercicio 50, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 27, Sección 2.2 (Problemas de aplicación) - Ejercicio 15, Sección 2.7 (Valor absoluto) - Ejercicio 40, Sección 2.6 (Desigualdades) - Ejercicio 4, Sección 2.7 (Valor absoluto) - Ejercicio 26, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 23, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 23, Sección 2.6 (Desigualdades) - Ejercicio 41, Sección 2.4 (Números complejos) - Ejercicio 58, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 5, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 4, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 33, Sección 2.1 (Ecuaciones) - Ejercicio 62, Sección 2.6 (Desigualdades) - Ejercicio 77, Sección 2.6 (Desigualdades) - Ejercicio 56, Sección 2.1 (Ecuaciones) - Ejercicio 47, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 28, Sección 2.4 (Números complejos) - Ejercicio 18, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 17</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sección 2.2 (Problemas de aplicación) - Ejercicio 29, Sección 2.4 (Números complejos) - Ejercicio 18, Sección 2.7 (Valor absoluto) - Ejercicio 44, Sección 2.6 (Desigualdades) - Ejercicio 86, Sección 2.7 (Valor absoluto) - Ejercicio 47, Sección 2.1 (Ecuaciones) - Ejercicio 60, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 46, Sección 2.1 (Ecuaciones) - Ejercicio 40, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 31, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 54, Sección 2.2 (Problemas de aplicación) - Ejercicio 24, Sección 2.2 (Problemas de aplicación) - Ejercicio 39, Sección 2.6 (Desigualdades) - Ejercicio 47, Sección 2.4 (Números complejos) - Ejercicio 27, Sección 2.2 (Problemas de aplicación) - Ejercicio 16, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 55, Sección 2.4 (Números complejos) - Ejercicio 44, Sección 2.4 (Números complejos) - Ejercicio 22, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 6, Sección 2.7 (Valor absoluto) - Ejercicio 41, Sección 2.2 (Problemas de aplicación) - Ejercicio 33, Sección 2.6 (Desigualdades) - Ejercicio 18, Sección 2.6 (Desigualdades) - Ejercicio 50, Sección 2.6 (Desigualdades) - Ejercicio 87</t>
+          <t>Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 40, Sección 2.6 (Desigualdades) - Ejercicio 26, Sección 2.2 (Problemas de aplicación) - Ejercicio 21, Sección 2.2 (Problemas de aplicación) - Ejercicio 37, Sección 2.2 (Problemas de aplicación) - Ejercicio 27, Sección 2.1 (Ecuaciones) - Ejercicio 29, Sección 2.7 (Valor absoluto) - Ejercicio 18, Sección 2.6 (Desigualdades) - Ejercicio 14, Sección 2.6 (Desigualdades) - Ejercicio 44, Sección 2.4 (Números complejos) - Ejercicio 41, Sección 2.4 (Números complejos) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 36, Sección 2.6 (Desigualdades) - Ejercicio 47, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 18, Sección 2.1 (Ecuaciones) - Ejercicio 2, Sección 2.6 (Desigualdades) - Ejercicio 89, Sección 2.7 (Valor absoluto) - Ejercicio 22, Sección 2.4 (Números complejos) - Ejercicio 7, Sección 2.1 (Ecuaciones) - Ejercicio 5, Sección 2.4 (Números complejos) - Ejercicio 22, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 35, Sección 2.7 (Valor absoluto) - Ejercicio 53, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 32, Sección 2.1 (Ecuaciones) - Ejercicio 3, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 66</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sección 2.1 (Ecuaciones) - Ejercicio 64, Sección 2.6 (Desigualdades) - Ejercicio 28, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 61, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 40, Sección 2.4 (Números complejos) - Ejercicio 3, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 52, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 8, Sección 2.4 (Números complejos) - Ejercicio 60, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 43, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 14, Sección 2.7 (Valor absoluto) - Ejercicio 13, Sección 2.1 (Ecuaciones) - Ejercicio 4, Sección 2.6 (Desigualdades) - Ejercicio 17, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 81, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 3, Sección 2.6 (Desigualdades) - Ejercicio 58, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 10, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 15, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 53, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 17, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 9, Sección 2.6 (Desigualdades) - Ejercicio 54, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 44, Sección 2.6 (Desigualdades) - Ejercicio 57, Sección 2.6 (Desigualdades) - Ejercicio 67</t>
+          <t>Sección 2.4 (Números complejos) - Ejercicio 8, Sección 2.6 (Desigualdades) - Ejercicio 27, Sección 2.4 (Números complejos) - Ejercicio 5, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 41, Sección 2.7 (Valor absoluto) - Ejercicio 29, Sección 2.1 (Ecuaciones) - Ejercicio 69, Sección 2.7 (Valor absoluto) - Ejercicio 21, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 51, Sección 2.7 (Valor absoluto) - Ejercicio 9, Sección 2.4 (Números complejos) - Ejercicio 15, Sección 2.7 (Valor absoluto) - Ejercicio 24, Sección 2.1 (Ecuaciones) - Ejercicio 21, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 57, Sección 2.1 (Ecuaciones) - Ejercicio 68, Sección 2.6 (Desigualdades) - Ejercicio 58, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 21, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 31, Sección 2.6 (Desigualdades) - Ejercicio 85, Sección 2.7 (Valor absoluto) - Ejercicio 11, Sección 2.4 (Números complejos) - Ejercicio 42, Sección 2.1 (Ecuaciones) - Ejercicio 14, Sección 2.4 (Números complejos) - Ejercicio 49, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 38, Sección 2.6 (Desigualdades) - Ejercicio 66</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sección 2.1 (Ecuaciones) - Ejercicio 10, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 13, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 28, Sección 2.7 (Valor absoluto) - Ejercicio 1, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 60, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 2, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 12, Sección 2.4 (Números complejos) - Ejercicio 14, Sección 2.4 (Números complejos) - Ejercicio 39, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 20, Sección 2.1 (Ecuaciones) - Ejercicio 18, Sección 2.4 (Números complejos) - Ejercicio 19, Sección 2.4 (Números complejos) - Ejercicio 40, Sección 2.2 (Problemas de aplicación) - Ejercicio 32, Sección 2.1 (Ecuaciones) - Ejercicio 41, Sección 2.1 (Ecuaciones) - Ejercicio 27, Sección 2.4 (Números complejos) - Ejercicio 16, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 68, Sección 2.6 (Desigualdades) - Ejercicio 71, Sección 2.7 (Valor absoluto) - Ejercicio 27, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 78, Sección 2.6 (Desigualdades) - Ejercicio 49, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 4, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 18, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 79</t>
+          <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 80, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 6, Sección 2.7 (Valor absoluto) - Ejercicio 38, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 74, Sección 2.2 (Problemas de aplicación) - Ejercicio 35, Sección 2.1 (Ecuaciones) - Ejercicio 13, Sección 2.1 (Ecuaciones) - Ejercicio 67, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 81, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 67, Sección 2.4 (Números complejos) - Ejercicio 57, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 44, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 43, Sección 2.7 (Valor absoluto) - Ejercicio 17, Sección 2.7 (Valor absoluto) - Ejercicio 8, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 55, Sección 2.2 (Problemas de aplicación) - Ejercicio 28, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 68, Sección 2.2 (Problemas de aplicación) - Ejercicio 34, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 62, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 64, Sección 2.7 (Valor absoluto) - Ejercicio 39, Sección 2.1 (Ecuaciones) - Ejercicio 56, Sección 2.2 (Problemas de aplicación) - Ejercicio 1, Sección 2.6 (Desigualdades) - Ejercicio 54, Sección 2.4 (Números complejos) - Ejercicio 24</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 1, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 28, Sección 2.1 (Ecuaciones) - Ejercicio 42, Sección 2.4 (Números complejos) - Ejercicio 28, Sección 2.1 (Ecuaciones) - Ejercicio 56, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 41, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 48, Sección 2.1 (Ecuaciones) - Ejercicio 66, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 7, Sección 2.1 (Ecuaciones) - Ejercicio 50, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 39, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 21, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 10, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 33, Sección 2.4 (Números complejos) - Ejercicio 46, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 20, Sección 2.6 (Desigualdades) - Ejercicio 20, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 32, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 47, Sección 2.7 (Valor absoluto) - Ejercicio 34, Sección 2.1 (Ecuaciones) - Ejercicio 17, Sección 2.4 (Números complejos) - Ejercicio 1, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 23, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 16, Sección 2.7 (Valor absoluto) - Ejercicio 22</t>
+          <t>Sección 2.6 (Desigualdades) - Ejercicio 24, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 39, Sección 2.7 (Valor absoluto) - Ejercicio 16, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 73, Sección 2.4 (Números complejos) - Ejercicio 17, Sección 2.1 (Ecuaciones) - Ejercicio 27, Sección 2.6 (Desigualdades) - Ejercicio 5, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 2, Sección 2.1 (Ecuaciones) - Ejercicio 48, Sección 2.6 (Desigualdades) - Ejercicio 23, Sección 2.2 (Problemas de aplicación) - Ejercicio 9, Sección 2.7 (Valor absoluto) - Ejercicio 10, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 3, Sección 2.2 (Problemas de aplicación) - Ejercicio 32, Sección 2.4 (Números complejos) - Ejercicio 21, Sección 2.6 (Desigualdades) - Ejercicio 71, Sección 2.4 (Números complejos) - Ejercicio 10, Sección 2.1 (Ecuaciones) - Ejercicio 46, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 48, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 47, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 21, Sección 2.1 (Ecuaciones) - Ejercicio 33, Sección 2.4 (Números complejos) - Ejercicio 33, Sección 2.7 (Valor absoluto) - Ejercicio 42, Sección 2.4 (Números complejos) - Ejercicio 40</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sección 2.7 (Valor absoluto) - Ejercicio 52, Sección 2.2 (Problemas de aplicación) - Ejercicio 36, Sección 2.2 (Problemas de aplicación) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 54, Sección 2.6 (Desigualdades) - Ejercicio 4, Sección 2.2 (Problemas de aplicación) - Ejercicio 6, Sección 2.4 (Números complejos) - Ejercicio 36, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 27, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 66, Sección 2.1 (Ecuaciones) - Ejercicio 68, Sección 2.4 (Números complejos) - Ejercicio 41, Sección 2.6 (Desigualdades) - Ejercicio 63, Sección 2.1 (Ecuaciones) - Ejercicio 16, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 64, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 67, Sección 2.6 (Desigualdades) - Ejercicio 14, Sección 2.6 (Desigualdades) - Ejercicio 35, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 5, Sección 2.4 (Números complejos) - Ejercicio 25, Sección 2.6 (Desigualdades) - Ejercicio 60, Sección 2.1 (Ecuaciones) - Ejercicio 72, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 53, Sección 2.1 (Ecuaciones) - Ejercicio 13, Sección 2.4 (Números complejos) - Ejercicio 57, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 3</t>
+          <t>Sección 2.6 (Desigualdades) - Ejercicio 64, Sección 2.1 (Ecuaciones) - Ejercicio 65, Sección 2.4 (Números complejos) - Ejercicio 36, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 28, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 64, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 31, Sección 2.6 (Desigualdades) - Ejercicio 38, Sección 2.6 (Desigualdades) - Ejercicio 76, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 57, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 37, Sección 2.1 (Ecuaciones) - Ejercicio 57, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 38, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 40, Sección 2.6 (Desigualdades) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 29, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 25, Sección 2.1 (Ecuaciones) - Ejercicio 32, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 17, Sección 2.1 (Ecuaciones) - Ejercicio 20, Sección 2.2 (Problemas de aplicación) - Ejercicio 26, Sección 2.6 (Desigualdades) - Ejercicio 3, Sección 2.7 (Valor absoluto) - Ejercicio 28, Sección 2.4 (Números complejos) - Ejercicio 43, Sección 2.6 (Desigualdades) - Ejercicio 31, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 59</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sección 2.7 (Valor absoluto) - Ejercicio 16, Sección 2.1 (Ecuaciones) - Ejercicio 22, Sección 2.6 (Desigualdades) - Ejercicio 43, Sección 2.1 (Ecuaciones) - Ejercicio 67, Sección 2.2 (Problemas de aplicación) - Ejercicio 15, Sección 2.6 (Desigualdades) - Ejercicio 84, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 2, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 63, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 50, Sección 2.6 (Desigualdades) - Ejercicio 6, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 52, Sección 2.7 (Valor absoluto) - Ejercicio 7, Sección 2.2 (Problemas de aplicación) - Ejercicio 14, Sección 2.4 (Números complejos) - Ejercicio 43, Sección 2.7 (Valor absoluto) - Ejercicio 4, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 49, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 76, Sección 2.1 (Ecuaciones) - Ejercicio 25, Sección 2.7 (Valor absoluto) - Ejercicio 26, Sección 2.4 (Números complejos) - Ejercicio 15, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 1, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 25, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 59, Sección 2.1 (Ecuaciones) - Ejercicio 78, Sección 2.2 (Problemas de aplicación) - Ejercicio 18</t>
+          <t>Sección 2.1 (Ecuaciones) - Ejercicio 50, Sección 2.6 (Desigualdades) - Ejercicio 86, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 49, Sección 2.4 (Números complejos) - Ejercicio 29, Sección 2.1 (Ecuaciones) - Ejercicio 28, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 5, Sección 2.1 (Ecuaciones) - Ejercicio 6, Sección 2.4 (Números complejos) - Ejercicio 48, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 69, Sección 2.2 (Problemas de aplicación) - Ejercicio 24, Sección 2.1 (Ecuaciones) - Ejercicio 23, Sección 2.6 (Desigualdades) - Ejercicio 83, Sección 2.1 (Ecuaciones) - Ejercicio 11, Sección 2.7 (Valor absoluto) - Ejercicio 52, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 50, Sección 2.1 (Ecuaciones) - Ejercicio 53, Sección 2.6 (Desigualdades) - Ejercicio 36, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 22, Sección 2.6 (Desigualdades) - Ejercicio 20, Sección 2.4 (Números complejos) - Ejercicio 27, Sección 2.6 (Desigualdades) - Ejercicio 49, Sección 2.7 (Valor absoluto) - Ejercicio 44, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 58, Sección 2.1 (Ecuaciones) - Ejercicio 8</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sección 2.1 (Ecuaciones) - Ejercicio 15, Sección 2.4 (Números complejos) - Ejercicio 2, Sección 2.4 (Números complejos) - Ejercicio 20, Sección 2.6 (Desigualdades) - Ejercicio 25, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 41, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 65, Sección 2.2 (Problemas de aplicación) - Ejercicio 11, Sección 2.6 (Desigualdades) - Ejercicio 10, Sección 2.7 (Valor absoluto) - Ejercicio 53, Sección 2.4 (Números complejos) - Ejercicio 6, Sección 2.4 (Números complejos) - Ejercicio 51, Sección 2.1 (Ecuaciones) - Ejercicio 55, Sección 2.4 (Números complejos) - Ejercicio 7, Sección 2.4 (Números complejos) - Ejercicio 54, Sección 2.4 (Números complejos) - Ejercicio 49, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 44, Sección 2.2 (Problemas de aplicación) - Ejercicio 22, Sección 2.2 (Problemas de aplicación) - Ejercicio 13, Sección 2.2 (Problemas de aplicación) - Ejercicio 9, Sección 2.6 (Desigualdades) - Ejercicio 72, Sección 2.6 (Desigualdades) - Ejercicio 78, Sección 2.6 (Desigualdades) - Ejercicio 83, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 27, Sección 2.1 (Ecuaciones) - Ejercicio 58, Sección 2.6 (Desigualdades) - Ejercicio 41</t>
+          <t>Sección 2.4 (Números complejos) - Ejercicio 56, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 47, Sección 2.2 (Problemas de aplicación) - Ejercicio 30, Sección 2.7 (Valor absoluto) - Ejercicio 7, Sección 2.6 (Desigualdades) - Ejercicio 18, Sección 2.2 (Problemas de aplicación) - Ejercicio 14, Sección 2.6 (Desigualdades) - Ejercicio 10, Sección 2.7 (Valor absoluto) - Ejercicio 30, Sección 2.1 (Ecuaciones) - Ejercicio 18, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 14, Sección 2.6 (Desigualdades) - Ejercicio 13, Sección 2.6 (Desigualdades) - Ejercicio 55, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 71, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 62, Sección 2.7 (Valor absoluto) - Ejercicio 32, Sección 2.7 (Valor absoluto) - Ejercicio 15, Sección 2.1 (Ecuaciones) - Ejercicio 22, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 8, Sección 2.7 (Valor absoluto) - Ejercicio 25, Sección 2.6 (Desigualdades) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 83, Sección 2.4 (Números complejos) - Ejercicio 38, Sección 2.1 (Ecuaciones) - Ejercicio 16, Sección 2.1 (Ecuaciones) - Ejercicio 41, Sección 2.6 (Desigualdades) - Ejercicio 73</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sección 2.6 (Desigualdades) - Ejercicio 22, Sección 2.1 (Ecuaciones) - Ejercicio 31, Sección 2.1 (Ecuaciones) - Ejercicio 28, Sección 2.6 (Desigualdades) - Ejercicio 89, Sección 2.1 (Ecuaciones) - Ejercicio 47, Sección 2.6 (Desigualdades) - Ejercicio 1, Sección 2.7 (Valor absoluto) - Ejercicio 23, Sección 2.6 (Desigualdades) - Ejercicio 34, Sección 2.6 (Desigualdades) - Ejercicio 44, Sección 2.6 (Desigualdades) - Ejercicio 38, Sección 2.4 (Números complejos) - Ejercicio 8, Sección 2.4 (Números complejos) - Ejercicio 5, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 69, Sección 2.4 (Números complejos) - Ejercicio 31, Sección 2.1 (Ecuaciones) - Ejercicio 32, Sección 2.4 (Números complejos) - Ejercicio 61, Sección 2.6 (Desigualdades) - Ejercicio 82, Sección 2.6 (Desigualdades) - Ejercicio 13, Sección 2.6 (Desigualdades) - Ejercicio 69, Sección 2.1 (Ecuaciones) - Ejercicio 12, Sección 2.1 (Ecuaciones) - Ejercicio 54, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 29, Sección 2.6 (Desigualdades) - Ejercicio 55, Sección 2.2 (Problemas de aplicación) - Ejercicio 2, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 26</t>
+          <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 34, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 41, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 12, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 50, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 54, Sección 2.1 (Ecuaciones) - Ejercicio 31, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 16, Sección 2.4 (Números complejos) - Ejercicio 60, Sección 2.4 (Números complejos) - Ejercicio 25, Sección 2.7 (Valor absoluto) - Ejercicio 13, Sección 2.1 (Ecuaciones) - Ejercicio 10, Sección 2.7 (Valor absoluto) - Ejercicio 14, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 13, Sección 2.4 (Números complejos) - Ejercicio 52, Sección 2.6 (Desigualdades) - Ejercicio 39, Sección 2.2 (Problemas de aplicación) - Ejercicio 8, Sección 2.6 (Desigualdades) - Ejercicio 8, Sección 2.6 (Desigualdades) - Ejercicio 9, Sección 2.6 (Desigualdades) - Ejercicio 57, Sección 2.4 (Números complejos) - Ejercicio 19, Sección 2.2 (Problemas de aplicación) - Ejercicio 40, Sección 2.6 (Desigualdades) - Ejercicio 2, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 14, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 43, Sección 2.6 (Desigualdades) - Ejercicio 35</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sección 2.1 (Ecuaciones) - Ejercicio 75, Sección 2.1 (Ecuaciones) - Ejercicio 46, Sección 2.4 (Números complejos) - Ejercicio 11, Sección 2.6 (Desigualdades) - Ejercicio 32, Sección 2.2 (Problemas de aplicación) - Ejercicio 35, Sección 2.7 (Valor absoluto) - Ejercicio 11, Sección 2.6 (Desigualdades) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 4, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 14, Sección 2.7 (Valor absoluto) - Ejercicio 39, Sección 2.2 (Problemas de aplicación) - Ejercicio 1, Sección 2.1 (Ecuaciones) - Ejercicio 53, Sección 2.7 (Valor absoluto) - Ejercicio 54, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 77, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 51, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 35, Sección 2.4 (Números complejos) - Ejercicio 59, Sección 2.4 (Números complejos) - Ejercicio 12, Sección 2.6 (Desigualdades) - Ejercicio 77, Sección 2.7 (Valor absoluto) - Ejercicio 42, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 57, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 17, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 83, Sección 2.7 (Valor absoluto) - Ejercicio 32, Sección 2.7 (Valor absoluto) - Ejercicio 15</t>
+          <t>Sección 2.6 (Desigualdades) - Ejercicio 43, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 60, Sección 2.7 (Valor absoluto) - Ejercicio 50, Sección 2.1 (Ecuaciones) - Ejercicio 73, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 54, Sección 2.2 (Problemas de aplicación) - Ejercicio 22, Sección 2.6 (Desigualdades) - Ejercicio 87, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 75, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 76, Sección 2.7 (Valor absoluto) - Ejercicio 4, Sección 2.4 (Números complejos) - Ejercicio 9, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 79, Sección 2.1 (Ecuaciones) - Ejercicio 55, Sección 2.2 (Problemas de aplicación) - Ejercicio 11, Sección 2.7 (Valor absoluto) - Ejercicio 31, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 42, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 45, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 68, Sección 2.2 (Problemas de aplicación) - Ejercicio 29, Sección 2.6 (Desigualdades) - Ejercicio 75, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 52, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 45, Sección 2.4 (Números complejos) - Ejercicio 32, Sección 2.7 (Valor absoluto) - Ejercicio 27</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sección 2.1 (Ecuaciones) - Ejercicio 37, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 42, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 60, Sección 2.1 (Ecuaciones) - Ejercicio 62, Sección 2.6 (Desigualdades) - Ejercicio 3, Sección 2.2 (Problemas de aplicación) - Ejercicio 26, Sección 2.1 (Ecuaciones) - Ejercicio 29, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 74, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 58, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 80, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 35, Sección 2.4 (Números complejos) - Ejercicio 53, Sección 2.7 (Valor absoluto) - Ejercicio 14, Sección 2.6 (Desigualdades) - Ejercicio 65, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 62, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 38, Sección 2.2 (Problemas de aplicación) - Ejercicio 37, Sección 2.7 (Valor absoluto) - Ejercicio 10, Sección 2.6 (Desigualdades) - Ejercicio 61, Sección 2.7 (Valor absoluto) - Ejercicio 3, Sección 2.6 (Desigualdades) - Ejercicio 8, Sección 2.6 (Desigualdades) - Ejercicio 51, Sección 2.6 (Desigualdades) - Ejercicio 19, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 57, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 9</t>
+          <t>Sección 2.2 (Problemas de aplicación) - Ejercicio 7, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 61, Sección 2.6 (Desigualdades) - Ejercicio 60, Sección 2.2 (Problemas de aplicación) - Ejercicio 33, Sección 2.4 (Números complejos) - Ejercicio 4, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 9, Sección 2.6 (Desigualdades) - Ejercicio 32, Sección 2.6 (Desigualdades) - Ejercicio 68, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 33, Sección 2.4 (Números complejos) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 78, Sección 2.6 (Desigualdades) - Ejercicio 51, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 65, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 6, Sección 2.1 (Ecuaciones) - Ejercicio 30, Sección 2.6 (Desigualdades) - Ejercicio 45, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 13, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 7, Sección 2.6 (Desigualdades) - Ejercicio 33, Sección 2.1 (Ecuaciones) - Ejercicio 38, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 15, Sección 2.6 (Desigualdades) - Ejercicio 67, Sección 2.6 (Desigualdades) - Ejercicio 69, Sección 2.2 (Problemas de aplicación) - Ejercicio 19, Sección 2.6 (Desigualdades) - Ejercicio 16</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sección 2.1 (Ecuaciones) - Ejercicio 21, Sección 2.1 (Ecuaciones) - Ejercicio 35, Sección 2.6 (Desigualdades) - Ejercicio 68, Sección 2.6 (Desigualdades) - Ejercicio 2, Sección 2.6 (Desigualdades) - Ejercicio 37, Sección 2.2 (Problemas de aplicación) - Ejercicio 4, Sección 2.7 (Valor absoluto) - Ejercicio 50, Sección 2.6 (Desigualdades) - Ejercicio 48, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 51, Sección 2.2 (Problemas de aplicación) - Ejercicio 40, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 42, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 61, Sección 2.1 (Ecuaciones) - Ejercicio 9, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 22, Sección 2.1 (Ecuaciones) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 29, Sección 2.6 (Desigualdades) - Ejercicio 88, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 24, Sección 2.4 (Números complejos) - Ejercicio 33, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 16, Sección 2.1 (Ecuaciones) - Ejercicio 65, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 34, Sección 2.4 (Números complejos) - Ejercicio 10, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 15, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 63</t>
+          <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 18, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 37, Sección 2.2 (Problemas de aplicación) - Ejercicio 12, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 2, Sección 2.1 (Ecuaciones) - Ejercicio 66, Sección 2.4 (Números complejos) - Ejercicio 59, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 60, Sección 2.6 (Desigualdades) - Ejercicio 29, Sección 2.7 (Valor absoluto) - Ejercicio 47, Sección 2.2 (Problemas de aplicación) - Ejercicio 25, Sección 2.4 (Números complejos) - Ejercicio 26, Sección 2.1 (Ecuaciones) - Ejercicio 77, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 55, Sección 2.6 (Desigualdades) - Ejercicio 79, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 67, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 22, Sección 2.1 (Ecuaciones) - Ejercicio 61, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 24, Sección 2.6 (Desigualdades) - Ejercicio 6, Sección 2.4 (Números complejos) - Ejercicio 55, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 36, Sección 2.1 (Ecuaciones) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 7, Sección 2.7 (Valor absoluto) - Ejercicio 46</t>
         </is>
       </c>
     </row>

--- a/3_planeacion/2_classes/3_unidad_2_ecuaciones_e_inecuaciones/apendice/ejercicios_colaboracion_equipo/asignacion_ejercicios_cap2.xlsx
+++ b/3_planeacion/2_classes/3_unidad_2_ecuaciones_e_inecuaciones/apendice/ejercicios_colaboracion_equipo/asignacion_ejercicios_cap2.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sección 2.1 (Ecuaciones) - Ejercicio 54, Sección 2.4 (Números complejos) - Ejercicio 61, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 71, Sección 2.1 (Ecuaciones) - Ejercicio 51, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 70, Sección 2.6 (Desigualdades) - Ejercicio 17, Sección 2.7 (Valor absoluto) - Ejercicio 35, Sección 2.2 (Problemas de aplicación) - Ejercicio 4, Sección 2.1 (Ecuaciones) - Ejercicio 26, Sección 2.7 (Valor absoluto) - Ejercicio 3, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 56, Sección 2.7 (Valor absoluto) - Ejercicio 19, Sección 2.6 (Desigualdades) - Ejercicio 37, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 63, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 58, Sección 2.6 (Desigualdades) - Ejercicio 28, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 42, Sección 2.1 (Ecuaciones) - Ejercicio 72, Sección 2.6 (Desigualdades) - Ejercicio 46, Sección 2.1 (Ecuaciones) - Ejercicio 71, Sección 2.1 (Ecuaciones) - Ejercicio 74, Sección 2.6 (Desigualdades) - Ejercicio 12, Sección 2.1 (Ecuaciones) - Ejercicio 52, Sección 2.4 (Números complejos) - Ejercicio 45, Sección 2.1 (Ecuaciones) - Ejercicio 64, Sección 2.6 (Desigualdades) - Ejercicio 72</t>
+          <t>Sección 2.7 (Valor absoluto) - Ejercicio 44, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 59, Sección 2.6 (Desigualdades) - Ejercicio 23, Sección 2.2 (Problemas de aplicación) - Ejercicio 25, Sección 2.6 (Desigualdades) - Ejercicio 83, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 36, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 73, Sección 2.7 (Valor absoluto) - Ejercicio 37, Sección 2.6 (Desigualdades) - Ejercicio 59, Sección 2.1 (Ecuaciones) - Ejercicio 21, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 23, Sección 2.4 (Números complejos) - Ejercicio 54, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 68, Sección 2.1 (Ecuaciones) - Ejercicio 41, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 71, Sección 2.2 (Problemas de aplicación) - Ejercicio 37, Sección 2.7 (Valor absoluto) - Ejercicio 12, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 50, Sección 2.1 (Ecuaciones) - Ejercicio 26, Sección 2.7 (Valor absoluto) - Ejercicio 48, Sección 2.2 (Problemas de aplicación) - Ejercicio 13, Sección 2.7 (Valor absoluto) - Ejercicio 27, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 69, Sección 2.4 (Números complejos) - Ejercicio 3, Sección 2.1 (Ecuaciones) - Ejercicio 16, Sección 2.4 (Números complejos) - Ejercicio 33</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sección 2.4 (Números complejos) - Ejercicio 23, Sección 2.4 (Números complejos) - Ejercicio 54, Sección 2.4 (Números complejos) - Ejercicio 16, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 10, Sección 2.6 (Desigualdades) - Ejercicio 61, Sección 2.1 (Ecuaciones) - Ejercicio 76, Sección 2.1 (Ecuaciones) - Ejercicio 42, Sección 2.6 (Desigualdades) - Ejercicio 84, Sección 2.6 (Desigualdades) - Ejercicio 53, Sección 2.2 (Problemas de aplicación) - Ejercicio 2, Sección 2.4 (Números complejos) - Ejercicio 13, Sección 2.2 (Problemas de aplicación) - Ejercicio 5, Sección 2.1 (Ecuaciones) - Ejercicio 49, Sección 2.4 (Números complejos) - Ejercicio 35, Sección 2.1 (Ecuaciones) - Ejercicio 78, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 46, Sección 2.1 (Ecuaciones) - Ejercicio 34, Sección 2.4 (Números complejos) - Ejercicio 47, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 48, Sección 2.6 (Desigualdades) - Ejercicio 25, Sección 2.6 (Desigualdades) - Ejercicio 74, Sección 2.2 (Problemas de aplicación) - Ejercicio 20, Sección 2.1 (Ecuaciones) - Ejercicio 70, Sección 2.1 (Ecuaciones) - Ejercicio 24, Sección 2.4 (Números complejos) - Ejercicio 3, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 59</t>
+          <t>Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 63, Sección 2.4 (Números complejos) - Ejercicio 42, Sección 2.6 (Desigualdades) - Ejercicio 20, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 7, Sección 2.2 (Problemas de aplicación) - Ejercicio 5, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 60, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 52, Sección 2.1 (Ecuaciones) - Ejercicio 18, Sección 2.2 (Problemas de aplicación) - Ejercicio 6, Sección 2.1 (Ecuaciones) - Ejercicio 1, Sección 2.1 (Ecuaciones) - Ejercicio 66, Sección 2.1 (Ecuaciones) - Ejercicio 22, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 2, Sección 2.6 (Desigualdades) - Ejercicio 43, Sección 2.6 (Desigualdades) - Ejercicio 39, Sección 2.7 (Valor absoluto) - Ejercicio 3, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 51, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 72, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 4, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 40, Sección 2.6 (Desigualdades) - Ejercicio 10, Sección 2.7 (Valor absoluto) - Ejercicio 15, Sección 2.6 (Desigualdades) - Ejercicio 27, Sección 2.2 (Problemas de aplicación) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 39</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sección 2.4 (Números complejos) - Ejercicio 12, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 82, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 12, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 53, Sección 2.4 (Números complejos) - Ejercicio 28, Sección 2.2 (Problemas de aplicación) - Ejercicio 3, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 15, Sección 2.1 (Ecuaciones) - Ejercicio 43, Sección 2.7 (Valor absoluto) - Ejercicio 33, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 61, Sección 2.1 (Ecuaciones) - Ejercicio 7, Sección 2.7 (Valor absoluto) - Ejercicio 20, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 16, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 46, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 25, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 39, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 44, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 4, Sección 2.6 (Desigualdades) - Ejercicio 62, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 65, Sección 2.6 (Desigualdades) - Ejercicio 1, Sección 2.2 (Problemas de aplicación) - Ejercicio 13, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 52, Sección 2.7 (Valor absoluto) - Ejercicio 49, Sección 2.6 (Desigualdades) - Ejercicio 80, Sección 2.1 (Ecuaciones) - Ejercicio 1</t>
+          <t>Sección 2.2 (Problemas de aplicación) - Ejercicio 21, Sección 2.1 (Ecuaciones) - Ejercicio 25, Sección 2.4 (Números complejos) - Ejercicio 2, Sección 2.2 (Problemas de aplicación) - Ejercicio 14, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 16, Sección 2.1 (Ecuaciones) - Ejercicio 27, Sección 2.7 (Valor absoluto) - Ejercicio 32, Sección 2.6 (Desigualdades) - Ejercicio 40, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 79, Sección 2.7 (Valor absoluto) - Ejercicio 29, Sección 2.6 (Desigualdades) - Ejercicio 70, Sección 2.4 (Números complejos) - Ejercicio 49, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 11, Sección 2.6 (Desigualdades) - Ejercicio 5, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 13, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 32, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 8, Sección 2.7 (Valor absoluto) - Ejercicio 18, Sección 2.6 (Desigualdades) - Ejercicio 19, Sección 2.2 (Problemas de aplicación) - Ejercicio 20, Sección 2.7 (Valor absoluto) - Ejercicio 14, Sección 2.4 (Números complejos) - Ejercicio 61, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 41, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 26, Sección 2.1 (Ecuaciones) - Ejercicio 28, Sección 2.1 (Ecuaciones) - Ejercicio 40</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sección 2.6 (Desigualdades) - Ejercicio 52, Sección 2.4 (Números complejos) - Ejercicio 14, Sección 2.4 (Números complejos) - Ejercicio 34, Sección 2.2 (Problemas de aplicación) - Ejercicio 17, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 49, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 34, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 26, Sección 2.2 (Problemas de aplicación) - Ejercicio 23, Sección 2.7 (Valor absoluto) - Ejercicio 34, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 8, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 1, Sección 2.2 (Problemas de aplicación) - Ejercicio 38, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 20, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 20, Sección 2.2 (Problemas de aplicación) - Ejercicio 39, Sección 2.1 (Ecuaciones) - Ejercicio 59, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 53, Sección 2.2 (Problemas de aplicación) - Ejercicio 18, Sección 2.4 (Números complejos) - Ejercicio 2, Sección 2.4 (Números complejos) - Ejercicio 46, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 72, Sección 2.2 (Problemas de aplicación) - Ejercicio 36, Sección 2.1 (Ecuaciones) - Ejercicio 35, Sección 2.4 (Números complejos) - Ejercicio 37, Sección 2.6 (Desigualdades) - Ejercicio 42</t>
+          <t>Sección 2.6 (Desigualdades) - Ejercicio 34, Sección 2.6 (Desigualdades) - Ejercicio 7, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 1, Sección 2.6 (Desigualdades) - Ejercicio 17, Sección 2.1 (Ecuaciones) - Ejercicio 65, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 33, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 29, Sección 2.6 (Desigualdades) - Ejercicio 52, Sección 2.6 (Desigualdades) - Ejercicio 86, Sección 2.1 (Ecuaciones) - Ejercicio 17, Sección 2.6 (Desigualdades) - Ejercicio 22, Sección 2.4 (Números complejos) - Ejercicio 6, Sección 2.6 (Desigualdades) - Ejercicio 35, Sección 2.4 (Números complejos) - Ejercicio 10, Sección 2.1 (Ecuaciones) - Ejercicio 71, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 48, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 44, Sección 2.1 (Ecuaciones) - Ejercicio 35, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 5, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 26, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 76, Sección 2.6 (Desigualdades) - Ejercicio 38, Sección 2.4 (Números complejos) - Ejercicio 14, Sección 2.2 (Problemas de aplicación) - Ejercicio 38, Sección 2.1 (Ecuaciones) - Ejercicio 62</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sección 2.1 (Ecuaciones) - Ejercicio 25, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 19, Sección 2.1 (Ecuaciones) - Ejercicio 58, Sección 2.6 (Desigualdades) - Ejercicio 34, Sección 2.1 (Ecuaciones) - Ejercicio 63, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 70, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 1, Sección 2.6 (Desigualdades) - Ejercicio 7, Sección 2.7 (Valor absoluto) - Ejercicio 54, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 77, Sección 2.1 (Ecuaciones) - Ejercicio 36, Sección 2.7 (Valor absoluto) - Ejercicio 41, Sección 2.7 (Valor absoluto) - Ejercicio 55, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 32, Sección 2.6 (Desigualdades) - Ejercicio 59, Sección 2.1 (Ecuaciones) - Ejercicio 12, Sección 2.7 (Valor absoluto) - Ejercicio 6, Sección 2.4 (Números complejos) - Ejercicio 6, Sección 2.1 (Ecuaciones) - Ejercicio 75, Sección 2.1 (Ecuaciones) - Ejercicio 4, Sección 2.7 (Valor absoluto) - Ejercicio 5, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 24, Sección 2.7 (Valor absoluto) - Ejercicio 23, Sección 2.4 (Números complejos) - Ejercicio 53</t>
+          <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 66, Sección 2.6 (Desigualdades) - Ejercicio 2, Sección 2.7 (Valor absoluto) - Ejercicio 8, Sección 2.6 (Desigualdades) - Ejercicio 26, Sección 2.4 (Números complejos) - Ejercicio 7, Sección 2.1 (Ecuaciones) - Ejercicio 2, Sección 2.6 (Desigualdades) - Ejercicio 11, Sección 2.7 (Valor absoluto) - Ejercicio 16, Sección 2.4 (Números complejos) - Ejercicio 11, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 22, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 80, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 61, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 82, Sección 2.1 (Ecuaciones) - Ejercicio 74, Sección 2.6 (Desigualdades) - Ejercicio 65, Sección 2.6 (Desigualdades) - Ejercicio 1, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 77, Sección 2.7 (Valor absoluto) - Ejercicio 13, Sección 2.7 (Valor absoluto) - Ejercicio 47, Sección 2.1 (Ecuaciones) - Ejercicio 23, Sección 2.4 (Números complejos) - Ejercicio 38, Sección 2.6 (Desigualdades) - Ejercicio 72, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 12, Sección 2.7 (Valor absoluto) - Ejercicio 2, Sección 2.6 (Desigualdades) - Ejercicio 42</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sección 2.6 (Desigualdades) - Ejercicio 50, Sección 2.2 (Problemas de aplicación) - Ejercicio 31, Sección 2.7 (Valor absoluto) - Ejercicio 51, Sección 2.7 (Valor absoluto) - Ejercicio 43, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 66, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 35, Sección 2.2 (Problemas de aplicación) - Ejercicio 16, Sección 2.4 (Números complejos) - Ejercicio 39, Sección 2.6 (Desigualdades) - Ejercicio 15, Sección 2.1 (Ecuaciones) - Ejercicio 60, Sección 2.6 (Desigualdades) - Ejercicio 22, Sección 2.7 (Valor absoluto) - Ejercicio 37, Sección 2.1 (Ecuaciones) - Ejercicio 45, Sección 2.1 (Ecuaciones) - Ejercicio 44, Sección 2.1 (Ecuaciones) - Ejercicio 40, Sección 2.1 (Ecuaciones) - Ejercicio 17, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 51, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 26, Sección 2.4 (Números complejos) - Ejercicio 51, Sección 2.6 (Desigualdades) - Ejercicio 40, Sección 2.2 (Problemas de aplicación) - Ejercicio 6, Sección 2.7 (Valor absoluto) - Ejercicio 2, Sección 2.1 (Ecuaciones) - Ejercicio 15, Sección 2.4 (Números complejos) - Ejercicio 31, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 3</t>
+          <t>Sección 2.6 (Desigualdades) - Ejercicio 49, Sección 2.4 (Números complejos) - Ejercicio 16, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 12, Sección 2.1 (Ecuaciones) - Ejercicio 36, Sección 2.7 (Valor absoluto) - Ejercicio 26, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 13, Sección 2.7 (Valor absoluto) - Ejercicio 5, Sección 2.4 (Números complejos) - Ejercicio 55, Sección 2.6 (Desigualdades) - Ejercicio 46, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 74, Sección 2.4 (Números complejos) - Ejercicio 46, Sección 2.7 (Valor absoluto) - Ejercicio 31, Sección 2.6 (Desigualdades) - Ejercicio 44, Sección 2.6 (Desigualdades) - Ejercicio 54, Sección 2.4 (Números complejos) - Ejercicio 25, Sección 2.1 (Ecuaciones) - Ejercicio 56, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 6, Sección 2.1 (Ecuaciones) - Ejercicio 6, Sección 2.6 (Desigualdades) - Ejercicio 47, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 33, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 25, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 56, Sección 2.6 (Desigualdades) - Ejercicio 12, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 42, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 15</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 56, Sección 2.7 (Valor absoluto) - Ejercicio 36, Sección 2.6 (Desigualdades) - Ejercicio 65, Sección 2.7 (Valor absoluto) - Ejercicio 45, Sección 2.6 (Desigualdades) - Ejercicio 48, Sección 2.6 (Desigualdades) - Ejercicio 21, Sección 2.6 (Desigualdades) - Ejercicio 88, Sección 2.7 (Valor absoluto) - Ejercicio 1, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 27, Sección 2.1 (Ecuaciones) - Ejercicio 9, Sección 2.4 (Números complejos) - Ejercicio 20, Sección 2.4 (Números complejos) - Ejercicio 44, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 69, Sección 2.6 (Desigualdades) - Ejercicio 70, Sección 2.1 (Ecuaciones) - Ejercicio 39, Sección 2.7 (Valor absoluto) - Ejercicio 48, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 10, Sección 2.6 (Desigualdades) - Ejercicio 78, Sección 2.6 (Desigualdades) - Ejercicio 81, Sección 2.1 (Ecuaciones) - Ejercicio 37, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 63, Sección 2.4 (Números complejos) - Ejercicio 1, Sección 2.2 (Problemas de aplicación) - Ejercicio 10, Sección 2.6 (Desigualdades) - Ejercicio 82, Sección 2.4 (Números complejos) - Ejercicio 62</t>
+          <t>Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 62, Sección 2.6 (Desigualdades) - Ejercicio 77, Sección 2.1 (Ecuaciones) - Ejercicio 52, Sección 2.2 (Problemas de aplicación) - Ejercicio 3, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 67, Sección 2.1 (Ecuaciones) - Ejercicio 57, Sección 2.2 (Problemas de aplicación) - Ejercicio 33, Sección 2.1 (Ecuaciones) - Ejercicio 3, Sección 2.7 (Valor absoluto) - Ejercicio 55, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 34, Sección 2.1 (Ecuaciones) - Ejercicio 33, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 38, Sección 2.6 (Desigualdades) - Ejercicio 78, Sección 2.7 (Valor absoluto) - Ejercicio 40, Sección 2.2 (Problemas de aplicación) - Ejercicio 35, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 57, Sección 2.6 (Desigualdades) - Ejercicio 69, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 6, Sección 2.6 (Desigualdades) - Ejercicio 81, Sección 2.6 (Desigualdades) - Ejercicio 31, Sección 2.4 (Números complejos) - Ejercicio 1, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 40, Sección 2.1 (Ecuaciones) - Ejercicio 50, Sección 2.4 (Números complejos) - Ejercicio 17, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 44</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sección 2.7 (Valor absoluto) - Ejercicio 12, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 29, Sección 2.6 (Desigualdades) - Ejercicio 63, Sección 2.6 (Desigualdades) - Ejercicio 30, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 9, Sección 2.4 (Números complejos) - Ejercicio 50, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 27, Sección 2.2 (Problemas de aplicación) - Ejercicio 15, Sección 2.7 (Valor absoluto) - Ejercicio 40, Sección 2.6 (Desigualdades) - Ejercicio 4, Sección 2.7 (Valor absoluto) - Ejercicio 26, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 23, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 23, Sección 2.6 (Desigualdades) - Ejercicio 41, Sección 2.4 (Números complejos) - Ejercicio 58, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 5, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 4, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 33, Sección 2.1 (Ecuaciones) - Ejercicio 62, Sección 2.6 (Desigualdades) - Ejercicio 77, Sección 2.6 (Desigualdades) - Ejercicio 56, Sección 2.1 (Ecuaciones) - Ejercicio 47, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 28, Sección 2.4 (Números complejos) - Ejercicio 18, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 17</t>
+          <t>Sección 2.7 (Valor absoluto) - Ejercicio 6, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 23, Sección 2.2 (Problemas de aplicación) - Ejercicio 29, Sección 2.4 (Números complejos) - Ejercicio 21, Sección 2.1 (Ecuaciones) - Ejercicio 13, Sección 2.6 (Desigualdades) - Ejercicio 75, Sección 2.4 (Números complejos) - Ejercicio 5, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 3, Sección 2.7 (Valor absoluto) - Ejercicio 45, Sección 2.6 (Desigualdades) - Ejercicio 25, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 63, Sección 2.6 (Desigualdades) - Ejercicio 29, Sección 2.2 (Problemas de aplicación) - Ejercicio 22, Sección 2.6 (Desigualdades) - Ejercicio 71, Sección 2.7 (Valor absoluto) - Ejercicio 24, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 75, Sección 2.2 (Problemas de aplicación) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 17, Sección 2.6 (Desigualdades) - Ejercicio 24, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 58, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 2, Sección 2.2 (Problemas de aplicación) - Ejercicio 36, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 21, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 1, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 46</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 40, Sección 2.6 (Desigualdades) - Ejercicio 26, Sección 2.2 (Problemas de aplicación) - Ejercicio 21, Sección 2.2 (Problemas de aplicación) - Ejercicio 37, Sección 2.2 (Problemas de aplicación) - Ejercicio 27, Sección 2.1 (Ecuaciones) - Ejercicio 29, Sección 2.7 (Valor absoluto) - Ejercicio 18, Sección 2.6 (Desigualdades) - Ejercicio 14, Sección 2.6 (Desigualdades) - Ejercicio 44, Sección 2.4 (Números complejos) - Ejercicio 41, Sección 2.4 (Números complejos) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 36, Sección 2.6 (Desigualdades) - Ejercicio 47, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 18, Sección 2.1 (Ecuaciones) - Ejercicio 2, Sección 2.6 (Desigualdades) - Ejercicio 89, Sección 2.7 (Valor absoluto) - Ejercicio 22, Sección 2.4 (Números complejos) - Ejercicio 7, Sección 2.1 (Ecuaciones) - Ejercicio 5, Sección 2.4 (Números complejos) - Ejercicio 22, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 35, Sección 2.7 (Valor absoluto) - Ejercicio 53, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 32, Sección 2.1 (Ecuaciones) - Ejercicio 3, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 66</t>
+          <t>Sección 2.4 (Números complejos) - Ejercicio 36, Sección 2.7 (Valor absoluto) - Ejercicio 50, Sección 2.6 (Desigualdades) - Ejercicio 74, Sección 2.7 (Valor absoluto) - Ejercicio 21, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 52, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 65, Sección 2.2 (Problemas de aplicación) - Ejercicio 8, Sección 2.6 (Desigualdades) - Ejercicio 63, Sección 2.4 (Números complejos) - Ejercicio 56, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 58, Sección 2.6 (Desigualdades) - Ejercicio 62, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 49, Sección 2.7 (Valor absoluto) - Ejercicio 22, Sección 2.2 (Problemas de aplicación) - Ejercicio 9, Sección 2.1 (Ecuaciones) - Ejercicio 4, Sección 2.7 (Valor absoluto) - Ejercicio 49, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 10, Sección 2.7 (Valor absoluto) - Ejercicio 38, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 43, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 17, Sección 2.4 (Números complejos) - Ejercicio 34, Sección 2.6 (Desigualdades) - Ejercicio 37, Sección 2.1 (Ecuaciones) - Ejercicio 44, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 16, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 39</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sección 2.4 (Números complejos) - Ejercicio 8, Sección 2.6 (Desigualdades) - Ejercicio 27, Sección 2.4 (Números complejos) - Ejercicio 5, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 41, Sección 2.7 (Valor absoluto) - Ejercicio 29, Sección 2.1 (Ecuaciones) - Ejercicio 69, Sección 2.7 (Valor absoluto) - Ejercicio 21, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 51, Sección 2.7 (Valor absoluto) - Ejercicio 9, Sección 2.4 (Números complejos) - Ejercicio 15, Sección 2.7 (Valor absoluto) - Ejercicio 24, Sección 2.1 (Ecuaciones) - Ejercicio 21, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 57, Sección 2.1 (Ecuaciones) - Ejercicio 68, Sección 2.6 (Desigualdades) - Ejercicio 58, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 21, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 31, Sección 2.6 (Desigualdades) - Ejercicio 85, Sección 2.7 (Valor absoluto) - Ejercicio 11, Sección 2.4 (Números complejos) - Ejercicio 42, Sección 2.1 (Ecuaciones) - Ejercicio 14, Sección 2.4 (Números complejos) - Ejercicio 49, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 38, Sección 2.6 (Desigualdades) - Ejercicio 66</t>
+          <t>Sección 2.6 (Desigualdades) - Ejercicio 73, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 70, Sección 2.2 (Problemas de aplicación) - Ejercicio 1, Sección 2.6 (Desigualdades) - Ejercicio 60, Sección 2.6 (Desigualdades) - Ejercicio 50, Sección 2.4 (Números complejos) - Ejercicio 26, Sección 2.2 (Problemas de aplicación) - Ejercicio 17, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 41, Sección 2.6 (Desigualdades) - Ejercicio 80, Sección 2.1 (Ecuaciones) - Ejercicio 77, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 28, Sección 2.6 (Desigualdades) - Ejercicio 82, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 11, Sección 2.4 (Números complejos) - Ejercicio 15, Sección 2.4 (Números complejos) - Ejercicio 59, Sección 2.2 (Problemas de aplicación) - Ejercicio 2, Sección 2.6 (Desigualdades) - Ejercicio 13, Sección 2.4 (Números complejos) - Ejercicio 18, Sección 2.4 (Números complejos) - Ejercicio 22, Sección 2.2 (Problemas de aplicación) - Ejercicio 27, Sección 2.4 (Números complejos) - Ejercicio 40, Sección 2.6 (Desigualdades) - Ejercicio 85, Sección 2.4 (Números complejos) - Ejercicio 20, Sección 2.2 (Problemas de aplicación) - Ejercicio 30, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 36</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 80, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 6, Sección 2.7 (Valor absoluto) - Ejercicio 38, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 74, Sección 2.2 (Problemas de aplicación) - Ejercicio 35, Sección 2.1 (Ecuaciones) - Ejercicio 13, Sección 2.1 (Ecuaciones) - Ejercicio 67, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 81, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 67, Sección 2.4 (Números complejos) - Ejercicio 57, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 44, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 43, Sección 2.7 (Valor absoluto) - Ejercicio 17, Sección 2.7 (Valor absoluto) - Ejercicio 8, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 55, Sección 2.2 (Problemas de aplicación) - Ejercicio 28, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 68, Sección 2.2 (Problemas de aplicación) - Ejercicio 34, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 62, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 64, Sección 2.7 (Valor absoluto) - Ejercicio 39, Sección 2.1 (Ecuaciones) - Ejercicio 56, Sección 2.2 (Problemas de aplicación) - Ejercicio 1, Sección 2.6 (Desigualdades) - Ejercicio 54, Sección 2.4 (Números complejos) - Ejercicio 24</t>
+          <t>Sección 2.2 (Problemas de aplicación) - Ejercicio 34, Sección 2.6 (Desigualdades) - Ejercicio 21, Sección 2.6 (Desigualdades) - Ejercicio 41, Sección 2.4 (Números complejos) - Ejercicio 44, Sección 2.6 (Desigualdades) - Ejercicio 79, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 54, Sección 2.1 (Ecuaciones) - Ejercicio 45, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 35, Sección 2.6 (Desigualdades) - Ejercicio 87, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 49, Sección 2.1 (Ecuaciones) - Ejercicio 48, Sección 2.6 (Desigualdades) - Ejercicio 51, Sección 2.1 (Ecuaciones) - Ejercicio 24, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 54, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 19, Sección 2.6 (Desigualdades) - Ejercicio 8, Sección 2.4 (Números complejos) - Ejercicio 51, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 61, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 10, Sección 2.2 (Problemas de aplicación) - Ejercicio 15, Sección 2.1 (Ecuaciones) - Ejercicio 5, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 64, Sección 2.6 (Desigualdades) - Ejercicio 56, Sección 2.4 (Números complejos) - Ejercicio 24, Sección 2.6 (Desigualdades) - Ejercicio 9</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sección 2.6 (Desigualdades) - Ejercicio 24, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 39, Sección 2.7 (Valor absoluto) - Ejercicio 16, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 73, Sección 2.4 (Números complejos) - Ejercicio 17, Sección 2.1 (Ecuaciones) - Ejercicio 27, Sección 2.6 (Desigualdades) - Ejercicio 5, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 2, Sección 2.1 (Ecuaciones) - Ejercicio 48, Sección 2.6 (Desigualdades) - Ejercicio 23, Sección 2.2 (Problemas de aplicación) - Ejercicio 9, Sección 2.7 (Valor absoluto) - Ejercicio 10, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 3, Sección 2.2 (Problemas de aplicación) - Ejercicio 32, Sección 2.4 (Números complejos) - Ejercicio 21, Sección 2.6 (Desigualdades) - Ejercicio 71, Sección 2.4 (Números complejos) - Ejercicio 10, Sección 2.1 (Ecuaciones) - Ejercicio 46, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 48, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 47, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 21, Sección 2.1 (Ecuaciones) - Ejercicio 33, Sección 2.4 (Números complejos) - Ejercicio 33, Sección 2.7 (Valor absoluto) - Ejercicio 42, Sección 2.4 (Números complejos) - Ejercicio 40</t>
+          <t>Sección 2.2 (Problemas de aplicación) - Ejercicio 26, Sección 2.4 (Números complejos) - Ejercicio 52, Sección 2.7 (Valor absoluto) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 4, Sección 2.7 (Valor absoluto) - Ejercicio 17, Sección 2.1 (Ecuaciones) - Ejercicio 78, Sección 2.4 (Números complejos) - Ejercicio 50, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 45, Sección 2.4 (Números complejos) - Ejercicio 43, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 57, Sección 2.1 (Ecuaciones) - Ejercicio 55, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 25, Sección 2.4 (Números complejos) - Ejercicio 31, Sección 2.6 (Desigualdades) - Ejercicio 3, Sección 2.4 (Números complejos) - Ejercicio 39, Sección 2.6 (Desigualdades) - Ejercicio 61, Sección 2.1 (Ecuaciones) - Ejercicio 54, Sección 2.7 (Valor absoluto) - Ejercicio 46, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 62, Sección 2.6 (Desigualdades) - Ejercicio 53, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 46, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 20, Sección 2.4 (Números complejos) - Ejercicio 27, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 78, Sección 2.1 (Ecuaciones) - Ejercicio 64</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sección 2.6 (Desigualdades) - Ejercicio 64, Sección 2.1 (Ecuaciones) - Ejercicio 65, Sección 2.4 (Números complejos) - Ejercicio 36, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 28, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 64, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 31, Sección 2.6 (Desigualdades) - Ejercicio 38, Sección 2.6 (Desigualdades) - Ejercicio 76, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 57, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 37, Sección 2.1 (Ecuaciones) - Ejercicio 57, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 38, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 40, Sección 2.6 (Desigualdades) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 29, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 25, Sección 2.1 (Ecuaciones) - Ejercicio 32, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 17, Sección 2.1 (Ecuaciones) - Ejercicio 20, Sección 2.2 (Problemas de aplicación) - Ejercicio 26, Sección 2.6 (Desigualdades) - Ejercicio 3, Sección 2.7 (Valor absoluto) - Ejercicio 28, Sección 2.4 (Números complejos) - Ejercicio 43, Sección 2.6 (Desigualdades) - Ejercicio 31, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 59</t>
+          <t>Sección 2.1 (Ecuaciones) - Ejercicio 11, Sección 2.7 (Valor absoluto) - Ejercicio 25, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 31, Sección 2.7 (Valor absoluto) - Ejercicio 43, Sección 2.1 (Ecuaciones) - Ejercicio 70, Sección 2.1 (Ecuaciones) - Ejercicio 49, Sección 2.4 (Números complejos) - Ejercicio 29, Sección 2.6 (Desigualdades) - Ejercicio 88, Sección 2.7 (Valor absoluto) - Ejercicio 39, Sección 2.6 (Desigualdades) - Ejercicio 16, Sección 2.6 (Desigualdades) - Ejercicio 4, Sección 2.1 (Ecuaciones) - Ejercicio 37, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 47, Sección 2.4 (Números complejos) - Ejercicio 48, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 37, Sección 2.7 (Valor absoluto) - Ejercicio 52, Sección 2.7 (Valor absoluto) - Ejercicio 23, Sección 2.1 (Ecuaciones) - Ejercicio 7, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 24, Sección 2.6 (Desigualdades) - Ejercicio 68, Sección 2.2 (Problemas de aplicación) - Ejercicio 16, Sección 2.1 (Ecuaciones) - Ejercicio 63, Sección 2.2 (Problemas de aplicación) - Ejercicio 7, Sección 2.7 (Valor absoluto) - Ejercicio 20, Sección 2.1 (Ecuaciones) - Ejercicio 15</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sección 2.1 (Ecuaciones) - Ejercicio 50, Sección 2.6 (Desigualdades) - Ejercicio 86, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 49, Sección 2.4 (Números complejos) - Ejercicio 29, Sección 2.1 (Ecuaciones) - Ejercicio 28, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 5, Sección 2.1 (Ecuaciones) - Ejercicio 6, Sección 2.4 (Números complejos) - Ejercicio 48, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 69, Sección 2.2 (Problemas de aplicación) - Ejercicio 24, Sección 2.1 (Ecuaciones) - Ejercicio 23, Sección 2.6 (Desigualdades) - Ejercicio 83, Sección 2.1 (Ecuaciones) - Ejercicio 11, Sección 2.7 (Valor absoluto) - Ejercicio 52, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 50, Sección 2.1 (Ecuaciones) - Ejercicio 53, Sección 2.6 (Desigualdades) - Ejercicio 36, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 22, Sección 2.6 (Desigualdades) - Ejercicio 20, Sección 2.4 (Números complejos) - Ejercicio 27, Sección 2.6 (Desigualdades) - Ejercicio 49, Sección 2.7 (Valor absoluto) - Ejercicio 44, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 58, Sección 2.1 (Ecuaciones) - Ejercicio 8</t>
+          <t>Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 48, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 15, Sección 2.6 (Desigualdades) - Ejercicio 48, Sección 2.4 (Números complejos) - Ejercicio 8, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 69, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 71, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 65, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 20, Sección 2.6 (Desigualdades) - Ejercicio 14, Sección 2.1 (Ecuaciones) - Ejercicio 67, Sección 2.1 (Ecuaciones) - Ejercicio 8, Sección 2.4 (Números complejos) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 81, Sección 2.2 (Problemas de aplicación) - Ejercicio 24, Sección 2.1 (Ecuaciones) - Ejercicio 60, Sección 2.7 (Valor absoluto) - Ejercicio 35, Sección 2.2 (Problemas de aplicación) - Ejercicio 28, Sección 2.4 (Números complejos) - Ejercicio 58, Sección 2.2 (Problemas de aplicación) - Ejercicio 39, Sección 2.1 (Ecuaciones) - Ejercicio 58, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 51, Sección 2.6 (Desigualdades) - Ejercicio 84, Sección 2.7 (Valor absoluto) - Ejercicio 1, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 67, Sección 2.4 (Números complejos) - Ejercicio 23</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sección 2.4 (Números complejos) - Ejercicio 56, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 47, Sección 2.2 (Problemas de aplicación) - Ejercicio 30, Sección 2.7 (Valor absoluto) - Ejercicio 7, Sección 2.6 (Desigualdades) - Ejercicio 18, Sección 2.2 (Problemas de aplicación) - Ejercicio 14, Sección 2.6 (Desigualdades) - Ejercicio 10, Sección 2.7 (Valor absoluto) - Ejercicio 30, Sección 2.1 (Ecuaciones) - Ejercicio 18, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 14, Sección 2.6 (Desigualdades) - Ejercicio 13, Sección 2.6 (Desigualdades) - Ejercicio 55, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 71, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 62, Sección 2.7 (Valor absoluto) - Ejercicio 32, Sección 2.7 (Valor absoluto) - Ejercicio 15, Sección 2.1 (Ecuaciones) - Ejercicio 22, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 8, Sección 2.7 (Valor absoluto) - Ejercicio 25, Sección 2.6 (Desigualdades) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 83, Sección 2.4 (Números complejos) - Ejercicio 38, Sección 2.1 (Ecuaciones) - Ejercicio 16, Sección 2.1 (Ecuaciones) - Ejercicio 41, Sección 2.6 (Desigualdades) - Ejercicio 73</t>
+          <t>Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 32, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 47, Sección 2.1 (Ecuaciones) - Ejercicio 19, Sección 2.2 (Problemas de aplicación) - Ejercicio 23, Sección 2.1 (Ecuaciones) - Ejercicio 14, Sección 2.4 (Números complejos) - Ejercicio 41, Sección 2.1 (Ecuaciones) - Ejercicio 51, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 50, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 42, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 29, Sección 2.4 (Números complejos) - Ejercicio 62, Sección 2.4 (Números complejos) - Ejercicio 37, Sección 2.1 (Ecuaciones) - Ejercicio 72, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 9, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 3, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 64, Sección 2.6 (Desigualdades) - Ejercicio 67, Sección 2.2 (Problemas de aplicación) - Ejercicio 18, Sección 2.4 (Números complejos) - Ejercicio 4, Sección 2.1 (Ecuaciones) - Ejercicio 38, Sección 2.1 (Ecuaciones) - Ejercicio 39, Sección 2.4 (Números complejos) - Ejercicio 19, Sección 2.6 (Desigualdades) - Ejercicio 30, Sección 2.1 (Ecuaciones) - Ejercicio 12, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 83</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 34, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 41, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 12, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 50, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 54, Sección 2.1 (Ecuaciones) - Ejercicio 31, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 16, Sección 2.4 (Números complejos) - Ejercicio 60, Sección 2.4 (Números complejos) - Ejercicio 25, Sección 2.7 (Valor absoluto) - Ejercicio 13, Sección 2.1 (Ecuaciones) - Ejercicio 10, Sección 2.7 (Valor absoluto) - Ejercicio 14, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 13, Sección 2.4 (Números complejos) - Ejercicio 52, Sección 2.6 (Desigualdades) - Ejercicio 39, Sección 2.2 (Problemas de aplicación) - Ejercicio 8, Sección 2.6 (Desigualdades) - Ejercicio 8, Sección 2.6 (Desigualdades) - Ejercicio 9, Sección 2.6 (Desigualdades) - Ejercicio 57, Sección 2.4 (Números complejos) - Ejercicio 19, Sección 2.2 (Problemas de aplicación) - Ejercicio 40, Sección 2.6 (Desigualdades) - Ejercicio 2, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 14, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 43, Sección 2.6 (Desigualdades) - Ejercicio 35</t>
+          <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 70, Sección 2.1 (Ecuaciones) - Ejercicio 10, Sección 2.7 (Valor absoluto) - Ejercicio 34, Sección 2.2 (Problemas de aplicación) - Ejercicio 12, Sección 2.7 (Valor absoluto) - Ejercicio 36, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 45, Sección 2.6 (Desigualdades) - Ejercicio 66, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 28, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 30, Sección 2.7 (Valor absoluto) - Ejercicio 51, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 68, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 38, Sección 2.7 (Valor absoluto) - Ejercicio 53, Sección 2.1 (Ecuaciones) - Ejercicio 32, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 14, Sección 2.1 (Ecuaciones) - Ejercicio 59, Sección 2.4 (Números complejos) - Ejercicio 60, Sección 2.1 (Ecuaciones) - Ejercicio 47, Sección 2.7 (Valor absoluto) - Ejercicio 30, Sección 2.1 (Ecuaciones) - Ejercicio 69, Sección 2.6 (Desigualdades) - Ejercicio 45, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 66, Sección 2.6 (Desigualdades) - Ejercicio 33, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 35</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sección 2.6 (Desigualdades) - Ejercicio 43, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 60, Sección 2.7 (Valor absoluto) - Ejercicio 50, Sección 2.1 (Ecuaciones) - Ejercicio 73, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 54, Sección 2.2 (Problemas de aplicación) - Ejercicio 22, Sección 2.6 (Desigualdades) - Ejercicio 87, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 75, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 76, Sección 2.7 (Valor absoluto) - Ejercicio 4, Sección 2.4 (Números complejos) - Ejercicio 9, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 79, Sección 2.1 (Ecuaciones) - Ejercicio 55, Sección 2.2 (Problemas de aplicación) - Ejercicio 11, Sección 2.7 (Valor absoluto) - Ejercicio 31, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 42, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 45, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 68, Sección 2.2 (Problemas de aplicación) - Ejercicio 29, Sección 2.6 (Desigualdades) - Ejercicio 75, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 52, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 45, Sección 2.4 (Números complejos) - Ejercicio 32, Sección 2.7 (Valor absoluto) - Ejercicio 27</t>
+          <t>Sección 2.6 (Desigualdades) - Ejercicio 28, Sección 2.2 (Problemas de aplicación) - Ejercicio 40, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 5, Sección 2.4 (Números complejos) - Ejercicio 32, Sección 2.4 (Números complejos) - Ejercicio 47, Sección 2.4 (Números complejos) - Ejercicio 13, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 27, Sección 2.6 (Desigualdades) - Ejercicio 6, Sección 2.6 (Desigualdades) - Ejercicio 15, Sección 2.6 (Desigualdades) - Ejercicio 57, Sección 2.1 (Ecuaciones) - Ejercicio 43, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 55, Sección 2.2 (Problemas de aplicación) - Ejercicio 4, Sección 2.4 (Números complejos) - Ejercicio 57, Sección 2.7 (Valor absoluto) - Ejercicio 28, Sección 2.6 (Desigualdades) - Ejercicio 76, Sección 2.1 (Ecuaciones) - Ejercicio 42, Sección 2.7 (Valor absoluto) - Ejercicio 42, Sección 2.4 (Números complejos) - Ejercicio 45, Sección 2.6 (Desigualdades) - Ejercicio 55, Sección 2.6 (Desigualdades) - Ejercicio 32, Sección 2.7 (Valor absoluto) - Ejercicio 7, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 22, Sección 2.1 (Ecuaciones) - Ejercicio 76, Sección 2.1 (Ecuaciones) - Ejercicio 46</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sección 2.2 (Problemas de aplicación) - Ejercicio 7, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 61, Sección 2.6 (Desigualdades) - Ejercicio 60, Sección 2.2 (Problemas de aplicación) - Ejercicio 33, Sección 2.4 (Números complejos) - Ejercicio 4, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 9, Sección 2.6 (Desigualdades) - Ejercicio 32, Sección 2.6 (Desigualdades) - Ejercicio 68, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 33, Sección 2.4 (Números complejos) - Ejercicio 11, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 78, Sección 2.6 (Desigualdades) - Ejercicio 51, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 65, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 6, Sección 2.1 (Ecuaciones) - Ejercicio 30, Sección 2.6 (Desigualdades) - Ejercicio 45, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 13, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 7, Sección 2.6 (Desigualdades) - Ejercicio 33, Sección 2.1 (Ecuaciones) - Ejercicio 38, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 15, Sección 2.6 (Desigualdades) - Ejercicio 67, Sección 2.6 (Desigualdades) - Ejercicio 69, Sección 2.2 (Problemas de aplicación) - Ejercicio 19, Sección 2.6 (Desigualdades) - Ejercicio 16</t>
+          <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 53, Sección 2.6 (Desigualdades) - Ejercicio 18, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 55, Sección 2.1 (Ecuaciones) - Ejercicio 9, Sección 2.6 (Desigualdades) - Ejercicio 36, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 21, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 37, Sección 2.1 (Ecuaciones) - Ejercicio 20, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 14, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 24, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 59, Sección 2.2 (Problemas de aplicación) - Ejercicio 31, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 8, Sección 2.1 (Ecuaciones) - Ejercicio 34, Sección 2.7 (Valor absoluto) - Ejercicio 10, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 34, Sección 2.4 (Números complejos) - Ejercicio 35, Sección 2.4 (Números complejos) - Ejercicio 9, Sección 2.1 (Ecuaciones) - Ejercicio 31, Sección 2.7 (Valor absoluto) - Ejercicio 33, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 18, Sección 2.7 (Valor absoluto) - Ejercicio 41, Sección 2.7 (Valor absoluto) - Ejercicio 54, Sección 2.1 (Ecuaciones) - Ejercicio 61, Sección 2.4 (Números complejos) - Ejercicio 53</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 18, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 37, Sección 2.2 (Problemas de aplicación) - Ejercicio 12, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 2, Sección 2.1 (Ecuaciones) - Ejercicio 66, Sección 2.4 (Números complejos) - Ejercicio 59, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 30, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 60, Sección 2.6 (Desigualdades) - Ejercicio 29, Sección 2.7 (Valor absoluto) - Ejercicio 47, Sección 2.2 (Problemas de aplicación) - Ejercicio 25, Sección 2.4 (Números complejos) - Ejercicio 26, Sección 2.1 (Ecuaciones) - Ejercicio 77, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 55, Sección 2.6 (Desigualdades) - Ejercicio 79, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 67, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 22, Sección 2.1 (Ecuaciones) - Ejercicio 61, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 24, Sección 2.6 (Desigualdades) - Ejercicio 6, Sección 2.4 (Números complejos) - Ejercicio 55, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 36, Sección 2.1 (Ecuaciones) - Ejercicio 19, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 7, Sección 2.7 (Valor absoluto) - Ejercicio 46</t>
+          <t>Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 53, Sección 2.2 (Problemas de aplicación) - Ejercicio 10, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 56, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 18, Sección 2.2 (Problemas de aplicación) - Ejercicio 32, Sección 2.7 (Valor absoluto) - Ejercicio 11, Sección 2.1 (Ecuaciones) - Ejercicio 29, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 27, Sección 2.1 (Ecuaciones) - Ejercicio 73, Sección 2.6 (Desigualdades) - Ejercicio 58, Sección 2.4 (Números complejos) - Ejercicio 28, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 7, Sección 2.1 (Ecuaciones) - Ejercicio 53, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 43, Sección 2.7 (Valor absoluto) - Ejercicio 4, Sección 2.4 (Números complejos) - Ejercicio 12, Sección 2.3 (Ecuaciones cuadráticas) - Ejercicio 31, Sección 2.6 (Desigualdades) - Ejercicio 64, Sección 2.1 (Ecuaciones) - Ejercicio 75, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 9, Sección 2.1 (Ecuaciones) - Ejercicio 30, Sección 2.5 (Otros tipos de ecuaciones) - Ejercicio 60, Sección 2.6 (Desigualdades) - Ejercicio 89, Sección 2.7 (Valor absoluto) - Ejercicio 9, Sección 2.1 (Ecuaciones) - Ejercicio 68</t>
         </is>
       </c>
     </row>
